--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9724557C-764F-41A0-81EF-D7E3FB78CC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F916744-BE2E-4101-A382-D3A4CC991218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L702"/>
+  <dimension ref="A1:L720"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A683" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J695" sqref="J695"/>
+      <pane ySplit="1" topLeftCell="A696" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C717" sqref="C717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25781,7 +25781,7 @@
         <v>643</v>
       </c>
       <c r="B645" s="2">
-        <f t="shared" ref="B645:B702" si="14">B644*1.3</f>
+        <f t="shared" ref="B645:B708" si="14">B644*1.3</f>
         <v>1.892563024131807E+85</v>
       </c>
       <c r="C645" s="1">
@@ -28151,6 +28151,744 @@
         <v>4</v>
       </c>
       <c r="L702" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="703" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A703" s="2">
+        <v>701</v>
+      </c>
+      <c r="B703" s="2">
+        <f t="shared" si="14"/>
+        <v>7.6871398939828738E+91</v>
+      </c>
+      <c r="C703" s="1">
+        <v>30</v>
+      </c>
+      <c r="D703" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E703" s="1">
+        <v>3</v>
+      </c>
+      <c r="F703" s="1">
+        <v>14</v>
+      </c>
+      <c r="G703" s="1">
+        <v>1</v>
+      </c>
+      <c r="H703" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I703" s="1">
+        <v>1</v>
+      </c>
+      <c r="J703" s="2">
+        <f t="shared" ref="J703:J720" si="15">IF(MOD(A703,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K703" s="2">
+        <f t="shared" ref="K703:K720" si="16">IF(J703=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L703" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="704" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A704" s="2">
+        <v>702</v>
+      </c>
+      <c r="B704" s="2">
+        <f t="shared" si="14"/>
+        <v>9.9932818621777367E+91</v>
+      </c>
+      <c r="C704" s="1">
+        <v>30</v>
+      </c>
+      <c r="D704" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E704" s="1">
+        <v>3</v>
+      </c>
+      <c r="F704" s="1">
+        <v>14</v>
+      </c>
+      <c r="G704" s="1">
+        <v>1</v>
+      </c>
+      <c r="H704" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I704" s="1">
+        <v>1</v>
+      </c>
+      <c r="J704" s="2">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="K704" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L704" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="705" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A705" s="2">
+        <v>703</v>
+      </c>
+      <c r="B705" s="2">
+        <f t="shared" si="14"/>
+        <v>1.2991266420831058E+92</v>
+      </c>
+      <c r="C705" s="1">
+        <v>30</v>
+      </c>
+      <c r="D705" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E705" s="1">
+        <v>3</v>
+      </c>
+      <c r="F705" s="1">
+        <v>14</v>
+      </c>
+      <c r="G705" s="1">
+        <v>1</v>
+      </c>
+      <c r="H705" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I705" s="1">
+        <v>1</v>
+      </c>
+      <c r="J705" s="2">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="K705" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L705" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="706" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A706" s="2">
+        <v>704</v>
+      </c>
+      <c r="B706" s="2">
+        <f t="shared" si="14"/>
+        <v>1.6888646347080376E+92</v>
+      </c>
+      <c r="C706" s="1">
+        <v>30</v>
+      </c>
+      <c r="D706" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E706" s="1">
+        <v>3</v>
+      </c>
+      <c r="F706" s="1">
+        <v>14</v>
+      </c>
+      <c r="G706" s="1">
+        <v>1</v>
+      </c>
+      <c r="H706" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I706" s="1">
+        <v>1</v>
+      </c>
+      <c r="J706" s="2">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="K706" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L706" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="707" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A707" s="2">
+        <v>705</v>
+      </c>
+      <c r="B707" s="2">
+        <f t="shared" si="14"/>
+        <v>2.195524025120449E+92</v>
+      </c>
+      <c r="C707" s="1">
+        <v>30</v>
+      </c>
+      <c r="D707" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E707" s="1">
+        <v>3</v>
+      </c>
+      <c r="F707" s="1">
+        <v>14</v>
+      </c>
+      <c r="G707" s="1">
+        <v>1</v>
+      </c>
+      <c r="H707" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I707" s="1">
+        <v>1</v>
+      </c>
+      <c r="J707" s="2">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="K707" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="L707" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="708" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A708" s="2">
+        <v>706</v>
+      </c>
+      <c r="B708" s="2">
+        <f t="shared" si="14"/>
+        <v>2.8541812326565838E+92</v>
+      </c>
+      <c r="C708" s="1">
+        <v>30</v>
+      </c>
+      <c r="D708" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E708" s="1">
+        <v>3</v>
+      </c>
+      <c r="F708" s="1">
+        <v>14</v>
+      </c>
+      <c r="G708" s="1">
+        <v>1</v>
+      </c>
+      <c r="H708" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I708" s="1">
+        <v>1</v>
+      </c>
+      <c r="J708" s="2">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="K708" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L708" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="709" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A709" s="2">
+        <v>707</v>
+      </c>
+      <c r="B709" s="2">
+        <f t="shared" ref="B709:B720" si="17">B708*1.3</f>
+        <v>3.7104356024535593E+92</v>
+      </c>
+      <c r="C709" s="1">
+        <v>30</v>
+      </c>
+      <c r="D709" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E709" s="1">
+        <v>3</v>
+      </c>
+      <c r="F709" s="1">
+        <v>14</v>
+      </c>
+      <c r="G709" s="1">
+        <v>1</v>
+      </c>
+      <c r="H709" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I709" s="1">
+        <v>1</v>
+      </c>
+      <c r="J709" s="2">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="K709" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L709" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="710" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A710" s="2">
+        <v>708</v>
+      </c>
+      <c r="B710" s="2">
+        <f t="shared" si="17"/>
+        <v>4.8235662831896274E+92</v>
+      </c>
+      <c r="C710" s="1">
+        <v>30</v>
+      </c>
+      <c r="D710" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E710" s="1">
+        <v>3</v>
+      </c>
+      <c r="F710" s="1">
+        <v>14</v>
+      </c>
+      <c r="G710" s="1">
+        <v>1</v>
+      </c>
+      <c r="H710" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I710" s="1">
+        <v>1</v>
+      </c>
+      <c r="J710" s="2">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="K710" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L710" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="711" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A711" s="2">
+        <v>709</v>
+      </c>
+      <c r="B711" s="2">
+        <f t="shared" si="17"/>
+        <v>6.2706361681465158E+92</v>
+      </c>
+      <c r="C711" s="1">
+        <v>30</v>
+      </c>
+      <c r="D711" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E711" s="1">
+        <v>3</v>
+      </c>
+      <c r="F711" s="1">
+        <v>14</v>
+      </c>
+      <c r="G711" s="1">
+        <v>1</v>
+      </c>
+      <c r="H711" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I711" s="1">
+        <v>1</v>
+      </c>
+      <c r="J711" s="2">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="K711" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L711" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="712" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A712" s="2">
+        <v>710</v>
+      </c>
+      <c r="B712" s="2">
+        <f t="shared" si="17"/>
+        <v>8.1518270185904707E+92</v>
+      </c>
+      <c r="C712" s="1">
+        <v>30</v>
+      </c>
+      <c r="D712" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E712" s="1">
+        <v>3</v>
+      </c>
+      <c r="F712" s="1">
+        <v>14</v>
+      </c>
+      <c r="G712" s="1">
+        <v>1</v>
+      </c>
+      <c r="H712" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I712" s="1">
+        <v>1</v>
+      </c>
+      <c r="J712" s="2">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="K712" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="L712" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="713" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A713" s="2">
+        <v>711</v>
+      </c>
+      <c r="B713" s="2">
+        <f t="shared" si="17"/>
+        <v>1.0597375124167612E+93</v>
+      </c>
+      <c r="C713" s="1">
+        <v>30</v>
+      </c>
+      <c r="D713" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E713" s="1">
+        <v>3</v>
+      </c>
+      <c r="F713" s="1">
+        <v>14</v>
+      </c>
+      <c r="G713" s="1">
+        <v>1</v>
+      </c>
+      <c r="H713" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I713" s="1">
+        <v>1</v>
+      </c>
+      <c r="J713" s="2">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="K713" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L713" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="714" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A714" s="2">
+        <v>712</v>
+      </c>
+      <c r="B714" s="2">
+        <f t="shared" si="17"/>
+        <v>1.3776587661417898E+93</v>
+      </c>
+      <c r="C714" s="1">
+        <v>30</v>
+      </c>
+      <c r="D714" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E714" s="1">
+        <v>3</v>
+      </c>
+      <c r="F714" s="1">
+        <v>14</v>
+      </c>
+      <c r="G714" s="1">
+        <v>1</v>
+      </c>
+      <c r="H714" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I714" s="1">
+        <v>1</v>
+      </c>
+      <c r="J714" s="2">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="K714" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L714" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="715" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A715" s="2">
+        <v>713</v>
+      </c>
+      <c r="B715" s="2">
+        <f t="shared" si="17"/>
+        <v>1.7909563959843268E+93</v>
+      </c>
+      <c r="C715" s="1">
+        <v>30</v>
+      </c>
+      <c r="D715" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E715" s="1">
+        <v>3</v>
+      </c>
+      <c r="F715" s="1">
+        <v>14</v>
+      </c>
+      <c r="G715" s="1">
+        <v>1</v>
+      </c>
+      <c r="H715" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I715" s="1">
+        <v>1</v>
+      </c>
+      <c r="J715" s="2">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="K715" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L715" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="716" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A716" s="2">
+        <v>714</v>
+      </c>
+      <c r="B716" s="2">
+        <f t="shared" si="17"/>
+        <v>2.3282433147796252E+93</v>
+      </c>
+      <c r="C716" s="1">
+        <v>30</v>
+      </c>
+      <c r="D716" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E716" s="1">
+        <v>3</v>
+      </c>
+      <c r="F716" s="1">
+        <v>14</v>
+      </c>
+      <c r="G716" s="1">
+        <v>1</v>
+      </c>
+      <c r="H716" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I716" s="1">
+        <v>1</v>
+      </c>
+      <c r="J716" s="2">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="K716" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L716" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="717" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A717" s="2">
+        <v>715</v>
+      </c>
+      <c r="B717" s="2">
+        <f t="shared" si="17"/>
+        <v>3.0267163092135127E+93</v>
+      </c>
+      <c r="C717" s="1">
+        <v>30</v>
+      </c>
+      <c r="D717" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E717" s="1">
+        <v>3</v>
+      </c>
+      <c r="F717" s="1">
+        <v>14</v>
+      </c>
+      <c r="G717" s="1">
+        <v>1</v>
+      </c>
+      <c r="H717" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I717" s="1">
+        <v>1</v>
+      </c>
+      <c r="J717" s="2">
+        <f t="shared" si="15"/>
+        <v>14</v>
+      </c>
+      <c r="K717" s="2">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="L717" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="718" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A718" s="2">
+        <v>716</v>
+      </c>
+      <c r="B718" s="2">
+        <f t="shared" si="17"/>
+        <v>3.9347312019775665E+93</v>
+      </c>
+      <c r="C718" s="1">
+        <v>30</v>
+      </c>
+      <c r="D718" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E718" s="1">
+        <v>3</v>
+      </c>
+      <c r="F718" s="1">
+        <v>14</v>
+      </c>
+      <c r="G718" s="1">
+        <v>1</v>
+      </c>
+      <c r="H718" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I718" s="1">
+        <v>1</v>
+      </c>
+      <c r="J718" s="2">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="K718" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L718" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="719" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A719" s="2">
+        <v>717</v>
+      </c>
+      <c r="B719" s="2">
+        <f t="shared" si="17"/>
+        <v>5.1151505625708369E+93</v>
+      </c>
+      <c r="C719" s="1">
+        <v>30</v>
+      </c>
+      <c r="D719" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E719" s="1">
+        <v>3</v>
+      </c>
+      <c r="F719" s="1">
+        <v>14</v>
+      </c>
+      <c r="G719" s="1">
+        <v>1</v>
+      </c>
+      <c r="H719" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I719" s="1">
+        <v>1</v>
+      </c>
+      <c r="J719" s="2">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="K719" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L719" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="720" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A720" s="2">
+        <v>718</v>
+      </c>
+      <c r="B720" s="2">
+        <f t="shared" si="17"/>
+        <v>6.649695731342088E+93</v>
+      </c>
+      <c r="C720" s="1">
+        <v>30</v>
+      </c>
+      <c r="D720" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E720" s="1">
+        <v>3</v>
+      </c>
+      <c r="F720" s="1">
+        <v>14</v>
+      </c>
+      <c r="G720" s="1">
+        <v>1</v>
+      </c>
+      <c r="H720" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I720" s="1">
+        <v>1</v>
+      </c>
+      <c r="J720" s="2">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+      <c r="K720" s="2">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L720" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F916744-BE2E-4101-A382-D3A4CC991218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34386E4-4FCB-4E1A-ACBE-40542AAD4BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -505,11 +505,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L720"/>
+  <dimension ref="A1:L757"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A696" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C717" sqref="C717"/>
+      <pane ySplit="1" topLeftCell="A726" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L720" sqref="L720"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28405,7 +28405,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="2">
-        <f t="shared" ref="B709:B720" si="17">B708*1.3</f>
+        <f t="shared" ref="B709:B757" si="17">B708*1.3</f>
         <v>3.7104356024535593E+92</v>
       </c>
       <c r="C709" s="1">
@@ -28889,6 +28889,1523 @@
         <v>0</v>
       </c>
       <c r="L720" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="721" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A721" s="2">
+        <v>719</v>
+      </c>
+      <c r="B721" s="2">
+        <f t="shared" si="17"/>
+        <v>8.6446044507447152E+93</v>
+      </c>
+      <c r="C721" s="1">
+        <v>30</v>
+      </c>
+      <c r="D721" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E721" s="1">
+        <v>3</v>
+      </c>
+      <c r="F721" s="1">
+        <v>14</v>
+      </c>
+      <c r="G721" s="1">
+        <v>1</v>
+      </c>
+      <c r="H721" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I721" s="1">
+        <v>1</v>
+      </c>
+      <c r="J721" s="2">
+        <f t="shared" ref="J721:J757" si="18">IF(MOD(A721,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K721" s="2">
+        <f t="shared" ref="K721:K757" si="19">IF(J721=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L721" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="722" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A722" s="2">
+        <v>720</v>
+      </c>
+      <c r="B722" s="2">
+        <f t="shared" si="17"/>
+        <v>1.123798578596813E+94</v>
+      </c>
+      <c r="C722" s="1">
+        <v>30</v>
+      </c>
+      <c r="D722" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E722" s="1">
+        <v>3</v>
+      </c>
+      <c r="F722" s="1">
+        <v>14</v>
+      </c>
+      <c r="G722" s="1">
+        <v>1</v>
+      </c>
+      <c r="H722" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I722" s="1">
+        <v>1</v>
+      </c>
+      <c r="J722" s="2">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="K722" s="2">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="L722" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="723" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A723" s="2">
+        <v>721</v>
+      </c>
+      <c r="B723" s="2">
+        <f t="shared" si="17"/>
+        <v>1.460938152175857E+94</v>
+      </c>
+      <c r="C723" s="1">
+        <v>30</v>
+      </c>
+      <c r="D723" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E723" s="1">
+        <v>3</v>
+      </c>
+      <c r="F723" s="1">
+        <v>14</v>
+      </c>
+      <c r="G723" s="1">
+        <v>1</v>
+      </c>
+      <c r="H723" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I723" s="1">
+        <v>1</v>
+      </c>
+      <c r="J723" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K723" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L723" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="724" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A724" s="2">
+        <v>722</v>
+      </c>
+      <c r="B724" s="2">
+        <f t="shared" si="17"/>
+        <v>1.8992195978286142E+94</v>
+      </c>
+      <c r="C724" s="1">
+        <v>30</v>
+      </c>
+      <c r="D724" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E724" s="1">
+        <v>3</v>
+      </c>
+      <c r="F724" s="1">
+        <v>14</v>
+      </c>
+      <c r="G724" s="1">
+        <v>1</v>
+      </c>
+      <c r="H724" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I724" s="1">
+        <v>1</v>
+      </c>
+      <c r="J724" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K724" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L724" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="725" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A725" s="2">
+        <v>723</v>
+      </c>
+      <c r="B725" s="2">
+        <f t="shared" si="17"/>
+        <v>2.4689854771771987E+94</v>
+      </c>
+      <c r="C725" s="1">
+        <v>30</v>
+      </c>
+      <c r="D725" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E725" s="1">
+        <v>3</v>
+      </c>
+      <c r="F725" s="1">
+        <v>14</v>
+      </c>
+      <c r="G725" s="1">
+        <v>1</v>
+      </c>
+      <c r="H725" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I725" s="1">
+        <v>1</v>
+      </c>
+      <c r="J725" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K725" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L725" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="726" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A726" s="2">
+        <v>724</v>
+      </c>
+      <c r="B726" s="2">
+        <f t="shared" si="17"/>
+        <v>3.2096811203303585E+94</v>
+      </c>
+      <c r="C726" s="1">
+        <v>30</v>
+      </c>
+      <c r="D726" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E726" s="1">
+        <v>3</v>
+      </c>
+      <c r="F726" s="1">
+        <v>14</v>
+      </c>
+      <c r="G726" s="1">
+        <v>1</v>
+      </c>
+      <c r="H726" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I726" s="1">
+        <v>1</v>
+      </c>
+      <c r="J726" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K726" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L726" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="727" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A727" s="2">
+        <v>725</v>
+      </c>
+      <c r="B727" s="2">
+        <f t="shared" si="17"/>
+        <v>4.1725854564294662E+94</v>
+      </c>
+      <c r="C727" s="1">
+        <v>30</v>
+      </c>
+      <c r="D727" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E727" s="1">
+        <v>3</v>
+      </c>
+      <c r="F727" s="1">
+        <v>14</v>
+      </c>
+      <c r="G727" s="1">
+        <v>1</v>
+      </c>
+      <c r="H727" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I727" s="1">
+        <v>1</v>
+      </c>
+      <c r="J727" s="2">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="K727" s="2">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="L727" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="728" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A728" s="2">
+        <v>726</v>
+      </c>
+      <c r="B728" s="2">
+        <f t="shared" si="17"/>
+        <v>5.4243610933583064E+94</v>
+      </c>
+      <c r="C728" s="1">
+        <v>30</v>
+      </c>
+      <c r="D728" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E728" s="1">
+        <v>3</v>
+      </c>
+      <c r="F728" s="1">
+        <v>14</v>
+      </c>
+      <c r="G728" s="1">
+        <v>1</v>
+      </c>
+      <c r="H728" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I728" s="1">
+        <v>1</v>
+      </c>
+      <c r="J728" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K728" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L728" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="729" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A729" s="2">
+        <v>727</v>
+      </c>
+      <c r="B729" s="2">
+        <f t="shared" si="17"/>
+        <v>7.0516694213657984E+94</v>
+      </c>
+      <c r="C729" s="1">
+        <v>30</v>
+      </c>
+      <c r="D729" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E729" s="1">
+        <v>3</v>
+      </c>
+      <c r="F729" s="1">
+        <v>14</v>
+      </c>
+      <c r="G729" s="1">
+        <v>1</v>
+      </c>
+      <c r="H729" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I729" s="1">
+        <v>1</v>
+      </c>
+      <c r="J729" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K729" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L729" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="730" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A730" s="2">
+        <v>728</v>
+      </c>
+      <c r="B730" s="2">
+        <f t="shared" si="17"/>
+        <v>9.1671702477755385E+94</v>
+      </c>
+      <c r="C730" s="1">
+        <v>30</v>
+      </c>
+      <c r="D730" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E730" s="1">
+        <v>3</v>
+      </c>
+      <c r="F730" s="1">
+        <v>14</v>
+      </c>
+      <c r="G730" s="1">
+        <v>1</v>
+      </c>
+      <c r="H730" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I730" s="1">
+        <v>1</v>
+      </c>
+      <c r="J730" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K730" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L730" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="731" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A731" s="2">
+        <v>729</v>
+      </c>
+      <c r="B731" s="2">
+        <f t="shared" si="17"/>
+        <v>1.19173213221082E+95</v>
+      </c>
+      <c r="C731" s="1">
+        <v>30</v>
+      </c>
+      <c r="D731" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E731" s="1">
+        <v>3</v>
+      </c>
+      <c r="F731" s="1">
+        <v>14</v>
+      </c>
+      <c r="G731" s="1">
+        <v>1</v>
+      </c>
+      <c r="H731" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I731" s="1">
+        <v>1</v>
+      </c>
+      <c r="J731" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K731" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L731" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="732" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A732" s="2">
+        <v>730</v>
+      </c>
+      <c r="B732" s="2">
+        <f t="shared" si="17"/>
+        <v>1.549251771874066E+95</v>
+      </c>
+      <c r="C732" s="1">
+        <v>30</v>
+      </c>
+      <c r="D732" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E732" s="1">
+        <v>3</v>
+      </c>
+      <c r="F732" s="1">
+        <v>14</v>
+      </c>
+      <c r="G732" s="1">
+        <v>1</v>
+      </c>
+      <c r="H732" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I732" s="1">
+        <v>1</v>
+      </c>
+      <c r="J732" s="2">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="K732" s="2">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="L732" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="733" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A733" s="2">
+        <v>731</v>
+      </c>
+      <c r="B733" s="2">
+        <f t="shared" si="17"/>
+        <v>2.0140273034362857E+95</v>
+      </c>
+      <c r="C733" s="1">
+        <v>30</v>
+      </c>
+      <c r="D733" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E733" s="1">
+        <v>3</v>
+      </c>
+      <c r="F733" s="1">
+        <v>14</v>
+      </c>
+      <c r="G733" s="1">
+        <v>1</v>
+      </c>
+      <c r="H733" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I733" s="1">
+        <v>1</v>
+      </c>
+      <c r="J733" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K733" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L733" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="734" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A734" s="2">
+        <v>732</v>
+      </c>
+      <c r="B734" s="2">
+        <f t="shared" si="17"/>
+        <v>2.6182354944671716E+95</v>
+      </c>
+      <c r="C734" s="1">
+        <v>30</v>
+      </c>
+      <c r="D734" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E734" s="1">
+        <v>3</v>
+      </c>
+      <c r="F734" s="1">
+        <v>14</v>
+      </c>
+      <c r="G734" s="1">
+        <v>1</v>
+      </c>
+      <c r="H734" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I734" s="1">
+        <v>1</v>
+      </c>
+      <c r="J734" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K734" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L734" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="735" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A735" s="2">
+        <v>733</v>
+      </c>
+      <c r="B735" s="2">
+        <f t="shared" si="17"/>
+        <v>3.4037061428073234E+95</v>
+      </c>
+      <c r="C735" s="1">
+        <v>30</v>
+      </c>
+      <c r="D735" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E735" s="1">
+        <v>3</v>
+      </c>
+      <c r="F735" s="1">
+        <v>14</v>
+      </c>
+      <c r="G735" s="1">
+        <v>1</v>
+      </c>
+      <c r="H735" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I735" s="1">
+        <v>1</v>
+      </c>
+      <c r="J735" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K735" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L735" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="736" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A736" s="2">
+        <v>734</v>
+      </c>
+      <c r="B736" s="2">
+        <f t="shared" si="17"/>
+        <v>4.4248179856495203E+95</v>
+      </c>
+      <c r="C736" s="1">
+        <v>30</v>
+      </c>
+      <c r="D736" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E736" s="1">
+        <v>3</v>
+      </c>
+      <c r="F736" s="1">
+        <v>14</v>
+      </c>
+      <c r="G736" s="1">
+        <v>1</v>
+      </c>
+      <c r="H736" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I736" s="1">
+        <v>1</v>
+      </c>
+      <c r="J736" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K736" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L736" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="737" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A737" s="2">
+        <v>735</v>
+      </c>
+      <c r="B737" s="2">
+        <f t="shared" si="17"/>
+        <v>5.7522633813443762E+95</v>
+      </c>
+      <c r="C737" s="1">
+        <v>30</v>
+      </c>
+      <c r="D737" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E737" s="1">
+        <v>3</v>
+      </c>
+      <c r="F737" s="1">
+        <v>14</v>
+      </c>
+      <c r="G737" s="1">
+        <v>1</v>
+      </c>
+      <c r="H737" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I737" s="1">
+        <v>1</v>
+      </c>
+      <c r="J737" s="2">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="K737" s="2">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="L737" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="738" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A738" s="2">
+        <v>736</v>
+      </c>
+      <c r="B738" s="2">
+        <f t="shared" si="17"/>
+        <v>7.4779423957476896E+95</v>
+      </c>
+      <c r="C738" s="1">
+        <v>30</v>
+      </c>
+      <c r="D738" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E738" s="1">
+        <v>3</v>
+      </c>
+      <c r="F738" s="1">
+        <v>14</v>
+      </c>
+      <c r="G738" s="1">
+        <v>1</v>
+      </c>
+      <c r="H738" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I738" s="1">
+        <v>1</v>
+      </c>
+      <c r="J738" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K738" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L738" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="739" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A739" s="2">
+        <v>737</v>
+      </c>
+      <c r="B739" s="2">
+        <f t="shared" si="17"/>
+        <v>9.7213251144719965E+95</v>
+      </c>
+      <c r="C739" s="1">
+        <v>30</v>
+      </c>
+      <c r="D739" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E739" s="1">
+        <v>3</v>
+      </c>
+      <c r="F739" s="1">
+        <v>14</v>
+      </c>
+      <c r="G739" s="1">
+        <v>1</v>
+      </c>
+      <c r="H739" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I739" s="1">
+        <v>1</v>
+      </c>
+      <c r="J739" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K739" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L739" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="740" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A740" s="2">
+        <v>738</v>
+      </c>
+      <c r="B740" s="2">
+        <f t="shared" si="17"/>
+        <v>1.2637722648813597E+96</v>
+      </c>
+      <c r="C740" s="1">
+        <v>30</v>
+      </c>
+      <c r="D740" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E740" s="1">
+        <v>3</v>
+      </c>
+      <c r="F740" s="1">
+        <v>14</v>
+      </c>
+      <c r="G740" s="1">
+        <v>1</v>
+      </c>
+      <c r="H740" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I740" s="1">
+        <v>1</v>
+      </c>
+      <c r="J740" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K740" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L740" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="741" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A741" s="2">
+        <v>739</v>
+      </c>
+      <c r="B741" s="2">
+        <f t="shared" si="17"/>
+        <v>1.6429039443457676E+96</v>
+      </c>
+      <c r="C741" s="1">
+        <v>30</v>
+      </c>
+      <c r="D741" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E741" s="1">
+        <v>3</v>
+      </c>
+      <c r="F741" s="1">
+        <v>14</v>
+      </c>
+      <c r="G741" s="1">
+        <v>1</v>
+      </c>
+      <c r="H741" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I741" s="1">
+        <v>1</v>
+      </c>
+      <c r="J741" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K741" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L741" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="742" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A742" s="2">
+        <v>740</v>
+      </c>
+      <c r="B742" s="2">
+        <f t="shared" si="17"/>
+        <v>2.1357751276494979E+96</v>
+      </c>
+      <c r="C742" s="1">
+        <v>30</v>
+      </c>
+      <c r="D742" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E742" s="1">
+        <v>3</v>
+      </c>
+      <c r="F742" s="1">
+        <v>14</v>
+      </c>
+      <c r="G742" s="1">
+        <v>1</v>
+      </c>
+      <c r="H742" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I742" s="1">
+        <v>1</v>
+      </c>
+      <c r="J742" s="2">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="K742" s="2">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="L742" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="743" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A743" s="2">
+        <v>741</v>
+      </c>
+      <c r="B743" s="2">
+        <f t="shared" si="17"/>
+        <v>2.7765076659443474E+96</v>
+      </c>
+      <c r="C743" s="1">
+        <v>30</v>
+      </c>
+      <c r="D743" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E743" s="1">
+        <v>3</v>
+      </c>
+      <c r="F743" s="1">
+        <v>14</v>
+      </c>
+      <c r="G743" s="1">
+        <v>1</v>
+      </c>
+      <c r="H743" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I743" s="1">
+        <v>1</v>
+      </c>
+      <c r="J743" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K743" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L743" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="744" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A744" s="2">
+        <v>742</v>
+      </c>
+      <c r="B744" s="2">
+        <f t="shared" si="17"/>
+        <v>3.6094599657276517E+96</v>
+      </c>
+      <c r="C744" s="1">
+        <v>30</v>
+      </c>
+      <c r="D744" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E744" s="1">
+        <v>3</v>
+      </c>
+      <c r="F744" s="1">
+        <v>14</v>
+      </c>
+      <c r="G744" s="1">
+        <v>1</v>
+      </c>
+      <c r="H744" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I744" s="1">
+        <v>1</v>
+      </c>
+      <c r="J744" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K744" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L744" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="745" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A745" s="2">
+        <v>743</v>
+      </c>
+      <c r="B745" s="2">
+        <f t="shared" si="17"/>
+        <v>4.6922979554459478E+96</v>
+      </c>
+      <c r="C745" s="1">
+        <v>30</v>
+      </c>
+      <c r="D745" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E745" s="1">
+        <v>3</v>
+      </c>
+      <c r="F745" s="1">
+        <v>14</v>
+      </c>
+      <c r="G745" s="1">
+        <v>1</v>
+      </c>
+      <c r="H745" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I745" s="1">
+        <v>1</v>
+      </c>
+      <c r="J745" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K745" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L745" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="746" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A746" s="2">
+        <v>744</v>
+      </c>
+      <c r="B746" s="2">
+        <f t="shared" si="17"/>
+        <v>6.0999873420797323E+96</v>
+      </c>
+      <c r="C746" s="1">
+        <v>30</v>
+      </c>
+      <c r="D746" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E746" s="1">
+        <v>3</v>
+      </c>
+      <c r="F746" s="1">
+        <v>14</v>
+      </c>
+      <c r="G746" s="1">
+        <v>1</v>
+      </c>
+      <c r="H746" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I746" s="1">
+        <v>1</v>
+      </c>
+      <c r="J746" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K746" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L746" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="747" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A747" s="2">
+        <v>745</v>
+      </c>
+      <c r="B747" s="2">
+        <f t="shared" si="17"/>
+        <v>7.9299835447036526E+96</v>
+      </c>
+      <c r="C747" s="1">
+        <v>30</v>
+      </c>
+      <c r="D747" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E747" s="1">
+        <v>3</v>
+      </c>
+      <c r="F747" s="1">
+        <v>14</v>
+      </c>
+      <c r="G747" s="1">
+        <v>1</v>
+      </c>
+      <c r="H747" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I747" s="1">
+        <v>1</v>
+      </c>
+      <c r="J747" s="2">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="K747" s="2">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="L747" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="748" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A748" s="2">
+        <v>746</v>
+      </c>
+      <c r="B748" s="2">
+        <f t="shared" si="17"/>
+        <v>1.0308978608114748E+97</v>
+      </c>
+      <c r="C748" s="1">
+        <v>30</v>
+      </c>
+      <c r="D748" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E748" s="1">
+        <v>3</v>
+      </c>
+      <c r="F748" s="1">
+        <v>14</v>
+      </c>
+      <c r="G748" s="1">
+        <v>1</v>
+      </c>
+      <c r="H748" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I748" s="1">
+        <v>1</v>
+      </c>
+      <c r="J748" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K748" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L748" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="749" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A749" s="2">
+        <v>747</v>
+      </c>
+      <c r="B749" s="2">
+        <f t="shared" si="17"/>
+        <v>1.3401672190549174E+97</v>
+      </c>
+      <c r="C749" s="1">
+        <v>30</v>
+      </c>
+      <c r="D749" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E749" s="1">
+        <v>3</v>
+      </c>
+      <c r="F749" s="1">
+        <v>14</v>
+      </c>
+      <c r="G749" s="1">
+        <v>1</v>
+      </c>
+      <c r="H749" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I749" s="1">
+        <v>1</v>
+      </c>
+      <c r="J749" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K749" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L749" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="750" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A750" s="2">
+        <v>748</v>
+      </c>
+      <c r="B750" s="2">
+        <f t="shared" si="17"/>
+        <v>1.7422173847713926E+97</v>
+      </c>
+      <c r="C750" s="1">
+        <v>30</v>
+      </c>
+      <c r="D750" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E750" s="1">
+        <v>3</v>
+      </c>
+      <c r="F750" s="1">
+        <v>14</v>
+      </c>
+      <c r="G750" s="1">
+        <v>1</v>
+      </c>
+      <c r="H750" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I750" s="1">
+        <v>1</v>
+      </c>
+      <c r="J750" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K750" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L750" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="751" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A751" s="2">
+        <v>749</v>
+      </c>
+      <c r="B751" s="2">
+        <f t="shared" si="17"/>
+        <v>2.2648826002028105E+97</v>
+      </c>
+      <c r="C751" s="1">
+        <v>30</v>
+      </c>
+      <c r="D751" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E751" s="1">
+        <v>3</v>
+      </c>
+      <c r="F751" s="1">
+        <v>14</v>
+      </c>
+      <c r="G751" s="1">
+        <v>1</v>
+      </c>
+      <c r="H751" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I751" s="1">
+        <v>1</v>
+      </c>
+      <c r="J751" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K751" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L751" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="752" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A752" s="2">
+        <v>750</v>
+      </c>
+      <c r="B752" s="2">
+        <f t="shared" si="17"/>
+        <v>2.9443473802636536E+97</v>
+      </c>
+      <c r="C752" s="1">
+        <v>30</v>
+      </c>
+      <c r="D752" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E752" s="1">
+        <v>3</v>
+      </c>
+      <c r="F752" s="1">
+        <v>14</v>
+      </c>
+      <c r="G752" s="1">
+        <v>1</v>
+      </c>
+      <c r="H752" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I752" s="1">
+        <v>1</v>
+      </c>
+      <c r="J752" s="2">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="K752" s="2">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="L752" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="753" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A753" s="2">
+        <v>751</v>
+      </c>
+      <c r="B753" s="2">
+        <f t="shared" si="17"/>
+        <v>3.8276515943427496E+97</v>
+      </c>
+      <c r="C753" s="1">
+        <v>30</v>
+      </c>
+      <c r="D753" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E753" s="1">
+        <v>3</v>
+      </c>
+      <c r="F753" s="1">
+        <v>14</v>
+      </c>
+      <c r="G753" s="1">
+        <v>1</v>
+      </c>
+      <c r="H753" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I753" s="1">
+        <v>1</v>
+      </c>
+      <c r="J753" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K753" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L753" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="754" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A754" s="2">
+        <v>752</v>
+      </c>
+      <c r="B754" s="2">
+        <f t="shared" si="17"/>
+        <v>4.9759470726455746E+97</v>
+      </c>
+      <c r="C754" s="1">
+        <v>30</v>
+      </c>
+      <c r="D754" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E754" s="1">
+        <v>3</v>
+      </c>
+      <c r="F754" s="1">
+        <v>14</v>
+      </c>
+      <c r="G754" s="1">
+        <v>1</v>
+      </c>
+      <c r="H754" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I754" s="1">
+        <v>1</v>
+      </c>
+      <c r="J754" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K754" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L754" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="755" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A755" s="2">
+        <v>753</v>
+      </c>
+      <c r="B755" s="2">
+        <f t="shared" si="17"/>
+        <v>6.4687311944392474E+97</v>
+      </c>
+      <c r="C755" s="1">
+        <v>30</v>
+      </c>
+      <c r="D755" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E755" s="1">
+        <v>3</v>
+      </c>
+      <c r="F755" s="1">
+        <v>14</v>
+      </c>
+      <c r="G755" s="1">
+        <v>1</v>
+      </c>
+      <c r="H755" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I755" s="1">
+        <v>1</v>
+      </c>
+      <c r="J755" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K755" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L755" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="756" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A756" s="2">
+        <v>754</v>
+      </c>
+      <c r="B756" s="2">
+        <f t="shared" si="17"/>
+        <v>8.4093505527710224E+97</v>
+      </c>
+      <c r="C756" s="1">
+        <v>30</v>
+      </c>
+      <c r="D756" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E756" s="1">
+        <v>3</v>
+      </c>
+      <c r="F756" s="1">
+        <v>14</v>
+      </c>
+      <c r="G756" s="1">
+        <v>1</v>
+      </c>
+      <c r="H756" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I756" s="1">
+        <v>1</v>
+      </c>
+      <c r="J756" s="2">
+        <f t="shared" si="18"/>
+        <v>-1</v>
+      </c>
+      <c r="K756" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L756" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="757" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A757" s="2">
+        <v>755</v>
+      </c>
+      <c r="B757" s="2">
+        <f t="shared" si="17"/>
+        <v>1.0932155718602329E+98</v>
+      </c>
+      <c r="C757" s="1">
+        <v>30</v>
+      </c>
+      <c r="D757" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E757" s="1">
+        <v>3</v>
+      </c>
+      <c r="F757" s="1">
+        <v>14</v>
+      </c>
+      <c r="G757" s="1">
+        <v>1</v>
+      </c>
+      <c r="H757" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I757" s="1">
+        <v>1</v>
+      </c>
+      <c r="J757" s="2">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="K757" s="2">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="L757" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34386E4-4FCB-4E1A-ACBE-40542AAD4BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5DD249-2AE1-408B-8C01-9DB33B172A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
+    <sheet name="UnitCahnge" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,12 +84,120 @@
     <t>spawnNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>단위 환산 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 환산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자리수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,8 +237,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,13 +268,40 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -175,7 +319,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,6 +331,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -505,11 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L757"/>
+  <dimension ref="A1:L761"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A726" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L720" sqref="L720"/>
+      <pane ySplit="1" topLeftCell="A744" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C776" sqref="C776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28405,7 +28567,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="2">
-        <f t="shared" ref="B709:B757" si="17">B708*1.3</f>
+        <f t="shared" ref="B709:B761" si="17">B708*1.3</f>
         <v>3.7104356024535593E+92</v>
       </c>
       <c r="C709" s="1">
@@ -28922,11 +29084,11 @@
         <v>1</v>
       </c>
       <c r="J721" s="2">
-        <f t="shared" ref="J721:J757" si="18">IF(MOD(A721,5)=0,14,-1)</f>
+        <f t="shared" ref="J721:J758" si="18">IF(MOD(A721,5)=0,14,-1)</f>
         <v>-1</v>
       </c>
       <c r="K721" s="2">
-        <f t="shared" ref="K721:K757" si="19">IF(J721=14,4,0)</f>
+        <f t="shared" ref="K721:K758" si="19">IF(J721=14,4,0)</f>
         <v>0</v>
       </c>
       <c r="L721" s="1">
@@ -30406,6 +30568,170 @@
         <v>4</v>
       </c>
       <c r="L757" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="758" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A758" s="2">
+        <v>756</v>
+      </c>
+      <c r="B758" s="2">
+        <f t="shared" si="17"/>
+        <v>1.421180243418303E+98</v>
+      </c>
+      <c r="C758" s="1">
+        <v>30</v>
+      </c>
+      <c r="D758" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E758" s="1">
+        <v>3</v>
+      </c>
+      <c r="F758" s="1">
+        <v>14</v>
+      </c>
+      <c r="G758" s="1">
+        <v>1</v>
+      </c>
+      <c r="H758" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I758" s="1">
+        <v>1</v>
+      </c>
+      <c r="J758" s="2">
+        <f t="shared" ref="J758:J761" si="20">IF(MOD(A758,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K758" s="2">
+        <f t="shared" ref="K758:K761" si="21">IF(J758=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L758" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="759" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A759" s="2">
+        <v>757</v>
+      </c>
+      <c r="B759" s="2">
+        <f t="shared" si="17"/>
+        <v>1.8475343164437939E+98</v>
+      </c>
+      <c r="C759" s="1">
+        <v>30</v>
+      </c>
+      <c r="D759" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E759" s="1">
+        <v>3</v>
+      </c>
+      <c r="F759" s="1">
+        <v>14</v>
+      </c>
+      <c r="G759" s="1">
+        <v>1</v>
+      </c>
+      <c r="H759" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I759" s="1">
+        <v>1</v>
+      </c>
+      <c r="J759" s="2">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="K759" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L759" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="760" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A760" s="2">
+        <v>758</v>
+      </c>
+      <c r="B760" s="2">
+        <f t="shared" si="17"/>
+        <v>2.4017946113769322E+98</v>
+      </c>
+      <c r="C760" s="1">
+        <v>30</v>
+      </c>
+      <c r="D760" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E760" s="1">
+        <v>3</v>
+      </c>
+      <c r="F760" s="1">
+        <v>14</v>
+      </c>
+      <c r="G760" s="1">
+        <v>1</v>
+      </c>
+      <c r="H760" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I760" s="1">
+        <v>1</v>
+      </c>
+      <c r="J760" s="2">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="K760" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L760" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="761" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A761" s="2">
+        <v>759</v>
+      </c>
+      <c r="B761" s="2">
+        <f t="shared" si="17"/>
+        <v>3.122332994790012E+98</v>
+      </c>
+      <c r="C761" s="1">
+        <v>30</v>
+      </c>
+      <c r="D761" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E761" s="1">
+        <v>3</v>
+      </c>
+      <c r="F761" s="1">
+        <v>14</v>
+      </c>
+      <c r="G761" s="1">
+        <v>1</v>
+      </c>
+      <c r="H761" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I761" s="1">
+        <v>1</v>
+      </c>
+      <c r="J761" s="2">
+        <f t="shared" si="20"/>
+        <v>-1</v>
+      </c>
+      <c r="K761" s="2">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L761" s="1">
         <v>13</v>
       </c>
     </row>
@@ -30414,4 +30740,887 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA34704-3679-4FD2-8316-234FB03DAF7D}">
+  <dimension ref="B4:N64"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.75" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="2:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8">
+        <v>4</v>
+      </c>
+      <c r="D6" s="9">
+        <f>POWER(10,C6)</f>
+        <v>10000</v>
+      </c>
+      <c r="E6" s="9" t="str">
+        <f>RIGHT(D6,C6)</f>
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="8">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" ref="D7:D29" si="0">POWER(10,C7)</f>
+        <v>100000000</v>
+      </c>
+      <c r="E7" s="9" t="str">
+        <f t="shared" ref="E7:E29" si="1">RIGHT(D7,C7)</f>
+        <v>00000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="8">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>000000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8">
+        <v>16</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>1E+16</v>
+      </c>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>0000000000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8">
+        <v>20</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>1E+20</v>
+      </c>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="8">
+        <v>24</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999998E+23</v>
+      </c>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999996E+27</v>
+      </c>
+      <c r="E12" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="8">
+        <v>32</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+32</v>
+      </c>
+      <c r="E13" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="8">
+        <v>36</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>1E+36</v>
+      </c>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="8">
+        <v>40</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>1E+40</v>
+      </c>
+      <c r="E15" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="8">
+        <v>44</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+44</v>
+      </c>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="8">
+        <v>48</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
+        <v>1E+48</v>
+      </c>
+      <c r="E17" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="8">
+        <v>52</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999999E+51</v>
+      </c>
+      <c r="E18" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="8">
+        <v>56</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+56</v>
+      </c>
+      <c r="E19" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="8">
+        <v>60</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E+59</v>
+      </c>
+      <c r="E20" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="8">
+        <v>64</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>1E+64</v>
+      </c>
+      <c r="E21" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="8">
+        <v>68</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E+67</v>
+      </c>
+      <c r="E22" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="8">
+        <v>72</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999994E+71</v>
+      </c>
+      <c r="E23" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="8">
+        <v>76</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>1E+76</v>
+      </c>
+      <c r="E24" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="8">
+        <v>80</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" si="0"/>
+        <v>1E+80</v>
+      </c>
+      <c r="E25" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="8">
+        <v>84</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+84</v>
+      </c>
+      <c r="E26" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="8">
+        <v>88</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999996E+87</v>
+      </c>
+      <c r="E27" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="8">
+        <v>92</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="0"/>
+        <v>1E+92</v>
+      </c>
+      <c r="E28" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="8">
+        <v>96</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="0"/>
+        <v>1E+96</v>
+      </c>
+      <c r="E29" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+    </row>
+    <row r="49" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+    </row>
+    <row r="50" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+    </row>
+    <row r="51" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+    </row>
+    <row r="52" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+    </row>
+    <row r="53" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+    </row>
+    <row r="54" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+    </row>
+    <row r="55" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+    </row>
+    <row r="56" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+    </row>
+    <row r="57" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+    </row>
+    <row r="58" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+    </row>
+    <row r="59" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+    </row>
+    <row r="60" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="4"/>
+      <c r="N60" s="4"/>
+    </row>
+    <row r="61" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+    </row>
+    <row r="62" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+    </row>
+    <row r="63" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+    </row>
+    <row r="64" spans="4:14" x14ac:dyDescent="0.3">
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+      <c r="M64" s="4"/>
+      <c r="N64" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5DD249-2AE1-408B-8C01-9DB33B172A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D390E5-53F5-4722-BA43-7E6474AD159C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -667,11 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L761"/>
+  <dimension ref="A1:L766"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A744" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C776" sqref="C776"/>
+      <selection pane="bottomLeft" activeCell="B768" sqref="B768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28567,7 +28567,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="2">
-        <f t="shared" ref="B709:B761" si="17">B708*1.3</f>
+        <f t="shared" ref="B709:B766" si="17">B708*1.3</f>
         <v>3.7104356024535593E+92</v>
       </c>
       <c r="C709" s="1">
@@ -29084,11 +29084,11 @@
         <v>1</v>
       </c>
       <c r="J721" s="2">
-        <f t="shared" ref="J721:J758" si="18">IF(MOD(A721,5)=0,14,-1)</f>
+        <f t="shared" ref="J721:J757" si="18">IF(MOD(A721,5)=0,14,-1)</f>
         <v>-1</v>
       </c>
       <c r="K721" s="2">
-        <f t="shared" ref="K721:K758" si="19">IF(J721=14,4,0)</f>
+        <f t="shared" ref="K721:K757" si="19">IF(J721=14,4,0)</f>
         <v>0</v>
       </c>
       <c r="L721" s="1">
@@ -30732,6 +30732,211 @@
         <v>0</v>
       </c>
       <c r="L761" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="762" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A762" s="2">
+        <v>760</v>
+      </c>
+      <c r="B762" s="2">
+        <f t="shared" si="17"/>
+        <v>4.0590328932270158E+98</v>
+      </c>
+      <c r="C762" s="1">
+        <v>30</v>
+      </c>
+      <c r="D762" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E762" s="1">
+        <v>3</v>
+      </c>
+      <c r="F762" s="1">
+        <v>14</v>
+      </c>
+      <c r="G762" s="1">
+        <v>1</v>
+      </c>
+      <c r="H762" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I762" s="1">
+        <v>1</v>
+      </c>
+      <c r="J762" s="2">
+        <f t="shared" ref="J762:J766" si="22">IF(MOD(A762,5)=0,14,-1)</f>
+        <v>14</v>
+      </c>
+      <c r="K762" s="2">
+        <f t="shared" ref="K762:K766" si="23">IF(J762=14,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L762" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="763" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A763" s="2">
+        <v>761</v>
+      </c>
+      <c r="B763" s="2">
+        <f t="shared" si="17"/>
+        <v>5.276742761195121E+98</v>
+      </c>
+      <c r="C763" s="1">
+        <v>30</v>
+      </c>
+      <c r="D763" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E763" s="1">
+        <v>3</v>
+      </c>
+      <c r="F763" s="1">
+        <v>14</v>
+      </c>
+      <c r="G763" s="1">
+        <v>1</v>
+      </c>
+      <c r="H763" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I763" s="1">
+        <v>1</v>
+      </c>
+      <c r="J763" s="2">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="K763" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L763" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="764" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A764" s="2">
+        <v>762</v>
+      </c>
+      <c r="B764" s="2">
+        <f t="shared" si="17"/>
+        <v>6.8597655895536573E+98</v>
+      </c>
+      <c r="C764" s="1">
+        <v>30</v>
+      </c>
+      <c r="D764" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E764" s="1">
+        <v>3</v>
+      </c>
+      <c r="F764" s="1">
+        <v>14</v>
+      </c>
+      <c r="G764" s="1">
+        <v>1</v>
+      </c>
+      <c r="H764" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I764" s="1">
+        <v>1</v>
+      </c>
+      <c r="J764" s="2">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="K764" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L764" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="765" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A765" s="2">
+        <v>763</v>
+      </c>
+      <c r="B765" s="2">
+        <f t="shared" si="17"/>
+        <v>8.9176952664197548E+98</v>
+      </c>
+      <c r="C765" s="1">
+        <v>30</v>
+      </c>
+      <c r="D765" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E765" s="1">
+        <v>3</v>
+      </c>
+      <c r="F765" s="1">
+        <v>14</v>
+      </c>
+      <c r="G765" s="1">
+        <v>1</v>
+      </c>
+      <c r="H765" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I765" s="1">
+        <v>1</v>
+      </c>
+      <c r="J765" s="2">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="K765" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L765" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="766" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A766" s="2">
+        <v>764</v>
+      </c>
+      <c r="B766" s="2">
+        <f t="shared" si="17"/>
+        <v>1.1593003846345681E+99</v>
+      </c>
+      <c r="C766" s="1">
+        <v>30</v>
+      </c>
+      <c r="D766" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E766" s="1">
+        <v>3</v>
+      </c>
+      <c r="F766" s="1">
+        <v>14</v>
+      </c>
+      <c r="G766" s="1">
+        <v>1</v>
+      </c>
+      <c r="H766" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I766" s="1">
+        <v>1</v>
+      </c>
+      <c r="J766" s="2">
+        <f t="shared" si="22"/>
+        <v>-1</v>
+      </c>
+      <c r="K766" s="2">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L766" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D390E5-53F5-4722-BA43-7E6474AD159C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6913A0E0-01CC-4FEC-8C4C-CE077C37BC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -667,11 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L766"/>
+  <dimension ref="A1:L795"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A744" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B768" sqref="B768"/>
+      <pane ySplit="1" topLeftCell="A783" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B798" sqref="B798"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -28567,7 +28567,7 @@
         <v>707</v>
       </c>
       <c r="B709" s="2">
-        <f t="shared" ref="B709:B766" si="17">B708*1.3</f>
+        <f t="shared" ref="B709:B772" si="17">B708*1.3</f>
         <v>3.7104356024535593E+92</v>
       </c>
       <c r="C709" s="1">
@@ -30937,6 +30937,1195 @@
         <v>0</v>
       </c>
       <c r="L766" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="767" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A767" s="2">
+        <v>765</v>
+      </c>
+      <c r="B767" s="2">
+        <f t="shared" si="17"/>
+        <v>1.5070905000249387E+99</v>
+      </c>
+      <c r="C767" s="1">
+        <v>30</v>
+      </c>
+      <c r="D767" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E767" s="1">
+        <v>3</v>
+      </c>
+      <c r="F767" s="1">
+        <v>14</v>
+      </c>
+      <c r="G767" s="1">
+        <v>1</v>
+      </c>
+      <c r="H767" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I767" s="1">
+        <v>1</v>
+      </c>
+      <c r="J767" s="2">
+        <f t="shared" ref="J767:J783" si="24">IF(MOD(A767,5)=0,14,-1)</f>
+        <v>14</v>
+      </c>
+      <c r="K767" s="2">
+        <f t="shared" ref="K767:K783" si="25">IF(J767=14,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L767" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="768" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A768" s="2">
+        <v>766</v>
+      </c>
+      <c r="B768" s="2">
+        <f t="shared" si="17"/>
+        <v>1.9592176500324204E+99</v>
+      </c>
+      <c r="C768" s="1">
+        <v>30</v>
+      </c>
+      <c r="D768" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E768" s="1">
+        <v>3</v>
+      </c>
+      <c r="F768" s="1">
+        <v>14</v>
+      </c>
+      <c r="G768" s="1">
+        <v>1</v>
+      </c>
+      <c r="H768" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I768" s="1">
+        <v>1</v>
+      </c>
+      <c r="J768" s="2">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="K768" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L768" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="769" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A769" s="2">
+        <v>767</v>
+      </c>
+      <c r="B769" s="2">
+        <f t="shared" si="17"/>
+        <v>2.5469829450421464E+99</v>
+      </c>
+      <c r="C769" s="1">
+        <v>30</v>
+      </c>
+      <c r="D769" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E769" s="1">
+        <v>3</v>
+      </c>
+      <c r="F769" s="1">
+        <v>14</v>
+      </c>
+      <c r="G769" s="1">
+        <v>1</v>
+      </c>
+      <c r="H769" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I769" s="1">
+        <v>1</v>
+      </c>
+      <c r="J769" s="2">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="K769" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L769" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="770" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A770" s="2">
+        <v>768</v>
+      </c>
+      <c r="B770" s="2">
+        <f t="shared" si="17"/>
+        <v>3.3110778285547904E+99</v>
+      </c>
+      <c r="C770" s="1">
+        <v>30</v>
+      </c>
+      <c r="D770" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E770" s="1">
+        <v>3</v>
+      </c>
+      <c r="F770" s="1">
+        <v>14</v>
+      </c>
+      <c r="G770" s="1">
+        <v>1</v>
+      </c>
+      <c r="H770" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I770" s="1">
+        <v>1</v>
+      </c>
+      <c r="J770" s="2">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="K770" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L770" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="771" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A771" s="2">
+        <v>769</v>
+      </c>
+      <c r="B771" s="2">
+        <f t="shared" si="17"/>
+        <v>4.3044011771212276E+99</v>
+      </c>
+      <c r="C771" s="1">
+        <v>30</v>
+      </c>
+      <c r="D771" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E771" s="1">
+        <v>3</v>
+      </c>
+      <c r="F771" s="1">
+        <v>14</v>
+      </c>
+      <c r="G771" s="1">
+        <v>1</v>
+      </c>
+      <c r="H771" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I771" s="1">
+        <v>1</v>
+      </c>
+      <c r="J771" s="2">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="K771" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L771" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="772" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A772" s="2">
+        <v>770</v>
+      </c>
+      <c r="B772" s="2">
+        <f t="shared" si="17"/>
+        <v>5.5957215302575958E+99</v>
+      </c>
+      <c r="C772" s="1">
+        <v>30</v>
+      </c>
+      <c r="D772" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E772" s="1">
+        <v>3</v>
+      </c>
+      <c r="F772" s="1">
+        <v>14</v>
+      </c>
+      <c r="G772" s="1">
+        <v>1</v>
+      </c>
+      <c r="H772" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I772" s="1">
+        <v>1</v>
+      </c>
+      <c r="J772" s="2">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="K772" s="2">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="L772" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="773" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A773" s="2">
+        <v>771</v>
+      </c>
+      <c r="B773" s="2">
+        <f t="shared" ref="B773:B795" si="26">B772*1.3</f>
+        <v>7.2744379893348752E+99</v>
+      </c>
+      <c r="C773" s="1">
+        <v>30</v>
+      </c>
+      <c r="D773" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E773" s="1">
+        <v>3</v>
+      </c>
+      <c r="F773" s="1">
+        <v>14</v>
+      </c>
+      <c r="G773" s="1">
+        <v>1</v>
+      </c>
+      <c r="H773" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I773" s="1">
+        <v>1</v>
+      </c>
+      <c r="J773" s="2">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="K773" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L773" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="774" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A774" s="2">
+        <v>772</v>
+      </c>
+      <c r="B774" s="2">
+        <f t="shared" si="26"/>
+        <v>9.4567693861353376E+99</v>
+      </c>
+      <c r="C774" s="1">
+        <v>30</v>
+      </c>
+      <c r="D774" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E774" s="1">
+        <v>3</v>
+      </c>
+      <c r="F774" s="1">
+        <v>14</v>
+      </c>
+      <c r="G774" s="1">
+        <v>1</v>
+      </c>
+      <c r="H774" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I774" s="1">
+        <v>1</v>
+      </c>
+      <c r="J774" s="2">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="K774" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L774" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="775" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A775" s="2">
+        <v>773</v>
+      </c>
+      <c r="B775" s="2">
+        <f t="shared" si="26"/>
+        <v>1.2293800201975939E+100</v>
+      </c>
+      <c r="C775" s="1">
+        <v>30</v>
+      </c>
+      <c r="D775" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E775" s="1">
+        <v>3</v>
+      </c>
+      <c r="F775" s="1">
+        <v>14</v>
+      </c>
+      <c r="G775" s="1">
+        <v>1</v>
+      </c>
+      <c r="H775" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I775" s="1">
+        <v>1</v>
+      </c>
+      <c r="J775" s="2">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="K775" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L775" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="776" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A776" s="2">
+        <v>774</v>
+      </c>
+      <c r="B776" s="2">
+        <f t="shared" si="26"/>
+        <v>1.598194026256872E+100</v>
+      </c>
+      <c r="C776" s="1">
+        <v>30</v>
+      </c>
+      <c r="D776" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E776" s="1">
+        <v>3</v>
+      </c>
+      <c r="F776" s="1">
+        <v>14</v>
+      </c>
+      <c r="G776" s="1">
+        <v>1</v>
+      </c>
+      <c r="H776" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I776" s="1">
+        <v>1</v>
+      </c>
+      <c r="J776" s="2">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="K776" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L776" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="777" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A777" s="2">
+        <v>775</v>
+      </c>
+      <c r="B777" s="2">
+        <f t="shared" si="26"/>
+        <v>2.0776522341339336E+100</v>
+      </c>
+      <c r="C777" s="1">
+        <v>30</v>
+      </c>
+      <c r="D777" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E777" s="1">
+        <v>3</v>
+      </c>
+      <c r="F777" s="1">
+        <v>14</v>
+      </c>
+      <c r="G777" s="1">
+        <v>1</v>
+      </c>
+      <c r="H777" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I777" s="1">
+        <v>1</v>
+      </c>
+      <c r="J777" s="2">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="K777" s="2">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="L777" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="778" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A778" s="2">
+        <v>776</v>
+      </c>
+      <c r="B778" s="2">
+        <f t="shared" si="26"/>
+        <v>2.7009479043741139E+100</v>
+      </c>
+      <c r="C778" s="1">
+        <v>30</v>
+      </c>
+      <c r="D778" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E778" s="1">
+        <v>3</v>
+      </c>
+      <c r="F778" s="1">
+        <v>14</v>
+      </c>
+      <c r="G778" s="1">
+        <v>1</v>
+      </c>
+      <c r="H778" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I778" s="1">
+        <v>1</v>
+      </c>
+      <c r="J778" s="2">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="K778" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L778" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="779" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A779" s="2">
+        <v>777</v>
+      </c>
+      <c r="B779" s="2">
+        <f t="shared" si="26"/>
+        <v>3.5112322756863482E+100</v>
+      </c>
+      <c r="C779" s="1">
+        <v>30</v>
+      </c>
+      <c r="D779" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E779" s="1">
+        <v>3</v>
+      </c>
+      <c r="F779" s="1">
+        <v>14</v>
+      </c>
+      <c r="G779" s="1">
+        <v>1</v>
+      </c>
+      <c r="H779" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I779" s="1">
+        <v>1</v>
+      </c>
+      <c r="J779" s="2">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="K779" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L779" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="780" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A780" s="2">
+        <v>778</v>
+      </c>
+      <c r="B780" s="2">
+        <f t="shared" si="26"/>
+        <v>4.5646019583922526E+100</v>
+      </c>
+      <c r="C780" s="1">
+        <v>30</v>
+      </c>
+      <c r="D780" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E780" s="1">
+        <v>3</v>
+      </c>
+      <c r="F780" s="1">
+        <v>14</v>
+      </c>
+      <c r="G780" s="1">
+        <v>1</v>
+      </c>
+      <c r="H780" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I780" s="1">
+        <v>1</v>
+      </c>
+      <c r="J780" s="2">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="K780" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L780" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="781" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A781" s="2">
+        <v>779</v>
+      </c>
+      <c r="B781" s="2">
+        <f t="shared" si="26"/>
+        <v>5.9339825459099283E+100</v>
+      </c>
+      <c r="C781" s="1">
+        <v>30</v>
+      </c>
+      <c r="D781" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E781" s="1">
+        <v>3</v>
+      </c>
+      <c r="F781" s="1">
+        <v>14</v>
+      </c>
+      <c r="G781" s="1">
+        <v>1</v>
+      </c>
+      <c r="H781" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I781" s="1">
+        <v>1</v>
+      </c>
+      <c r="J781" s="2">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="K781" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L781" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="782" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A782" s="2">
+        <v>780</v>
+      </c>
+      <c r="B782" s="2">
+        <f t="shared" si="26"/>
+        <v>7.7141773096829075E+100</v>
+      </c>
+      <c r="C782" s="1">
+        <v>30</v>
+      </c>
+      <c r="D782" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E782" s="1">
+        <v>3</v>
+      </c>
+      <c r="F782" s="1">
+        <v>14</v>
+      </c>
+      <c r="G782" s="1">
+        <v>1</v>
+      </c>
+      <c r="H782" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I782" s="1">
+        <v>1</v>
+      </c>
+      <c r="J782" s="2">
+        <f t="shared" si="24"/>
+        <v>14</v>
+      </c>
+      <c r="K782" s="2">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="L782" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="783" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A783" s="2">
+        <v>781</v>
+      </c>
+      <c r="B783" s="2">
+        <f t="shared" si="26"/>
+        <v>1.002843050258778E+101</v>
+      </c>
+      <c r="C783" s="1">
+        <v>30</v>
+      </c>
+      <c r="D783" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E783" s="1">
+        <v>3</v>
+      </c>
+      <c r="F783" s="1">
+        <v>14</v>
+      </c>
+      <c r="G783" s="1">
+        <v>1</v>
+      </c>
+      <c r="H783" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I783" s="1">
+        <v>1</v>
+      </c>
+      <c r="J783" s="2">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="K783" s="2">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L783" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="784" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A784" s="2">
+        <v>782</v>
+      </c>
+      <c r="B784" s="2">
+        <f t="shared" si="26"/>
+        <v>1.3036959653364115E+101</v>
+      </c>
+      <c r="C784" s="1">
+        <v>30</v>
+      </c>
+      <c r="D784" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E784" s="1">
+        <v>3</v>
+      </c>
+      <c r="F784" s="1">
+        <v>14</v>
+      </c>
+      <c r="G784" s="1">
+        <v>1</v>
+      </c>
+      <c r="H784" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I784" s="1">
+        <v>1</v>
+      </c>
+      <c r="J784" s="2">
+        <f t="shared" ref="J784:J795" si="27">IF(MOD(A784,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K784" s="2">
+        <f t="shared" ref="K784:K795" si="28">IF(J784=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L784" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="785" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A785" s="2">
+        <v>783</v>
+      </c>
+      <c r="B785" s="2">
+        <f t="shared" si="26"/>
+        <v>1.6948047549373351E+101</v>
+      </c>
+      <c r="C785" s="1">
+        <v>30</v>
+      </c>
+      <c r="D785" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E785" s="1">
+        <v>3</v>
+      </c>
+      <c r="F785" s="1">
+        <v>14</v>
+      </c>
+      <c r="G785" s="1">
+        <v>1</v>
+      </c>
+      <c r="H785" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I785" s="1">
+        <v>1</v>
+      </c>
+      <c r="J785" s="2">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="K785" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L785" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="786" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A786" s="2">
+        <v>784</v>
+      </c>
+      <c r="B786" s="2">
+        <f t="shared" si="26"/>
+        <v>2.2032461814185356E+101</v>
+      </c>
+      <c r="C786" s="1">
+        <v>30</v>
+      </c>
+      <c r="D786" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E786" s="1">
+        <v>3</v>
+      </c>
+      <c r="F786" s="1">
+        <v>14</v>
+      </c>
+      <c r="G786" s="1">
+        <v>1</v>
+      </c>
+      <c r="H786" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I786" s="1">
+        <v>1</v>
+      </c>
+      <c r="J786" s="2">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="K786" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L786" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="787" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A787" s="2">
+        <v>785</v>
+      </c>
+      <c r="B787" s="2">
+        <f t="shared" si="26"/>
+        <v>2.8642200358440962E+101</v>
+      </c>
+      <c r="C787" s="1">
+        <v>30</v>
+      </c>
+      <c r="D787" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E787" s="1">
+        <v>3</v>
+      </c>
+      <c r="F787" s="1">
+        <v>14</v>
+      </c>
+      <c r="G787" s="1">
+        <v>1</v>
+      </c>
+      <c r="H787" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I787" s="1">
+        <v>1</v>
+      </c>
+      <c r="J787" s="2">
+        <f t="shared" si="27"/>
+        <v>14</v>
+      </c>
+      <c r="K787" s="2">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="L787" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="788" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A788" s="2">
+        <v>786</v>
+      </c>
+      <c r="B788" s="2">
+        <f t="shared" si="26"/>
+        <v>3.7234860465973252E+101</v>
+      </c>
+      <c r="C788" s="1">
+        <v>30</v>
+      </c>
+      <c r="D788" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E788" s="1">
+        <v>3</v>
+      </c>
+      <c r="F788" s="1">
+        <v>14</v>
+      </c>
+      <c r="G788" s="1">
+        <v>1</v>
+      </c>
+      <c r="H788" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I788" s="1">
+        <v>1</v>
+      </c>
+      <c r="J788" s="2">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="K788" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L788" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="789" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A789" s="2">
+        <v>787</v>
+      </c>
+      <c r="B789" s="2">
+        <f t="shared" si="26"/>
+        <v>4.840531860576523E+101</v>
+      </c>
+      <c r="C789" s="1">
+        <v>30</v>
+      </c>
+      <c r="D789" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E789" s="1">
+        <v>3</v>
+      </c>
+      <c r="F789" s="1">
+        <v>14</v>
+      </c>
+      <c r="G789" s="1">
+        <v>1</v>
+      </c>
+      <c r="H789" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I789" s="1">
+        <v>1</v>
+      </c>
+      <c r="J789" s="2">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="K789" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L789" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="790" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A790" s="2">
+        <v>788</v>
+      </c>
+      <c r="B790" s="2">
+        <f t="shared" si="26"/>
+        <v>6.29269141874948E+101</v>
+      </c>
+      <c r="C790" s="1">
+        <v>30</v>
+      </c>
+      <c r="D790" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E790" s="1">
+        <v>3</v>
+      </c>
+      <c r="F790" s="1">
+        <v>14</v>
+      </c>
+      <c r="G790" s="1">
+        <v>1</v>
+      </c>
+      <c r="H790" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I790" s="1">
+        <v>1</v>
+      </c>
+      <c r="J790" s="2">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="K790" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L790" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="791" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A791" s="2">
+        <v>789</v>
+      </c>
+      <c r="B791" s="2">
+        <f t="shared" si="26"/>
+        <v>8.1804988443743239E+101</v>
+      </c>
+      <c r="C791" s="1">
+        <v>30</v>
+      </c>
+      <c r="D791" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E791" s="1">
+        <v>3</v>
+      </c>
+      <c r="F791" s="1">
+        <v>14</v>
+      </c>
+      <c r="G791" s="1">
+        <v>1</v>
+      </c>
+      <c r="H791" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I791" s="1">
+        <v>1</v>
+      </c>
+      <c r="J791" s="2">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="K791" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L791" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="792" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A792" s="2">
+        <v>790</v>
+      </c>
+      <c r="B792" s="2">
+        <f t="shared" si="26"/>
+        <v>1.0634648497686621E+102</v>
+      </c>
+      <c r="C792" s="1">
+        <v>30</v>
+      </c>
+      <c r="D792" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E792" s="1">
+        <v>3</v>
+      </c>
+      <c r="F792" s="1">
+        <v>14</v>
+      </c>
+      <c r="G792" s="1">
+        <v>1</v>
+      </c>
+      <c r="H792" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I792" s="1">
+        <v>1</v>
+      </c>
+      <c r="J792" s="2">
+        <f t="shared" si="27"/>
+        <v>14</v>
+      </c>
+      <c r="K792" s="2">
+        <f t="shared" si="28"/>
+        <v>4</v>
+      </c>
+      <c r="L792" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="793" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A793" s="2">
+        <v>791</v>
+      </c>
+      <c r="B793" s="2">
+        <f t="shared" si="26"/>
+        <v>1.3825043046992608E+102</v>
+      </c>
+      <c r="C793" s="1">
+        <v>30</v>
+      </c>
+      <c r="D793" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E793" s="1">
+        <v>3</v>
+      </c>
+      <c r="F793" s="1">
+        <v>14</v>
+      </c>
+      <c r="G793" s="1">
+        <v>1</v>
+      </c>
+      <c r="H793" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I793" s="1">
+        <v>1</v>
+      </c>
+      <c r="J793" s="2">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="K793" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L793" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="794" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A794" s="2">
+        <v>792</v>
+      </c>
+      <c r="B794" s="2">
+        <f t="shared" si="26"/>
+        <v>1.7972555961090393E+102</v>
+      </c>
+      <c r="C794" s="1">
+        <v>30</v>
+      </c>
+      <c r="D794" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E794" s="1">
+        <v>3</v>
+      </c>
+      <c r="F794" s="1">
+        <v>14</v>
+      </c>
+      <c r="G794" s="1">
+        <v>1</v>
+      </c>
+      <c r="H794" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I794" s="1">
+        <v>1</v>
+      </c>
+      <c r="J794" s="2">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="K794" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L794" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="795" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A795" s="2">
+        <v>793</v>
+      </c>
+      <c r="B795" s="2">
+        <f t="shared" si="26"/>
+        <v>2.336432274941751E+102</v>
+      </c>
+      <c r="C795" s="1">
+        <v>30</v>
+      </c>
+      <c r="D795" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E795" s="1">
+        <v>3</v>
+      </c>
+      <c r="F795" s="1">
+        <v>14</v>
+      </c>
+      <c r="G795" s="1">
+        <v>1</v>
+      </c>
+      <c r="H795" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I795" s="1">
+        <v>1</v>
+      </c>
+      <c r="J795" s="2">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="K795" s="2">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="L795" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6913A0E0-01CC-4FEC-8C4C-CE077C37BC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7998CE8B-1021-42EA-B40E-F7C7B29A79EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -667,11 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L795"/>
+  <dimension ref="A1:L824"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A783" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B798" sqref="B798"/>
+      <pane ySplit="1" topLeftCell="A789" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N804" sqref="N804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31191,7 +31191,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="2">
-        <f t="shared" ref="B773:B795" si="26">B772*1.3</f>
+        <f t="shared" ref="B773:B825" si="26">B772*1.3</f>
         <v>7.2744379893348752E+99</v>
       </c>
       <c r="C773" s="1">
@@ -32126,6 +32126,1195 @@
         <v>0</v>
       </c>
       <c r="L795" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="796" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A796" s="2">
+        <v>794</v>
+      </c>
+      <c r="B796" s="2">
+        <f t="shared" si="26"/>
+        <v>3.0373619574242765E+102</v>
+      </c>
+      <c r="C796" s="1">
+        <v>30</v>
+      </c>
+      <c r="D796" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E796" s="1">
+        <v>3</v>
+      </c>
+      <c r="F796" s="1">
+        <v>14</v>
+      </c>
+      <c r="G796" s="1">
+        <v>1</v>
+      </c>
+      <c r="H796" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I796" s="1">
+        <v>1</v>
+      </c>
+      <c r="J796" s="2">
+        <f t="shared" ref="J796:J819" si="29">IF(MOD(A796,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K796" s="2">
+        <f t="shared" ref="K796:K819" si="30">IF(J796=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L796" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="797" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A797" s="2">
+        <v>795</v>
+      </c>
+      <c r="B797" s="2">
+        <f t="shared" si="26"/>
+        <v>3.9485705446515598E+102</v>
+      </c>
+      <c r="C797" s="1">
+        <v>30</v>
+      </c>
+      <c r="D797" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E797" s="1">
+        <v>3</v>
+      </c>
+      <c r="F797" s="1">
+        <v>14</v>
+      </c>
+      <c r="G797" s="1">
+        <v>1</v>
+      </c>
+      <c r="H797" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I797" s="1">
+        <v>1</v>
+      </c>
+      <c r="J797" s="2">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+      <c r="K797" s="2">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="L797" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="798" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A798" s="2">
+        <v>796</v>
+      </c>
+      <c r="B798" s="2">
+        <f t="shared" si="26"/>
+        <v>5.1331417080470277E+102</v>
+      </c>
+      <c r="C798" s="1">
+        <v>30</v>
+      </c>
+      <c r="D798" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E798" s="1">
+        <v>3</v>
+      </c>
+      <c r="F798" s="1">
+        <v>14</v>
+      </c>
+      <c r="G798" s="1">
+        <v>1</v>
+      </c>
+      <c r="H798" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I798" s="1">
+        <v>1</v>
+      </c>
+      <c r="J798" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K798" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L798" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="799" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A799" s="2">
+        <v>797</v>
+      </c>
+      <c r="B799" s="2">
+        <f t="shared" si="26"/>
+        <v>6.6730842204611365E+102</v>
+      </c>
+      <c r="C799" s="1">
+        <v>30</v>
+      </c>
+      <c r="D799" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E799" s="1">
+        <v>3</v>
+      </c>
+      <c r="F799" s="1">
+        <v>14</v>
+      </c>
+      <c r="G799" s="1">
+        <v>1</v>
+      </c>
+      <c r="H799" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I799" s="1">
+        <v>1</v>
+      </c>
+      <c r="J799" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K799" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L799" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="800" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A800" s="2">
+        <v>798</v>
+      </c>
+      <c r="B800" s="2">
+        <f t="shared" si="26"/>
+        <v>8.6750094865994772E+102</v>
+      </c>
+      <c r="C800" s="1">
+        <v>30</v>
+      </c>
+      <c r="D800" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E800" s="1">
+        <v>3</v>
+      </c>
+      <c r="F800" s="1">
+        <v>14</v>
+      </c>
+      <c r="G800" s="1">
+        <v>1</v>
+      </c>
+      <c r="H800" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I800" s="1">
+        <v>1</v>
+      </c>
+      <c r="J800" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K800" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L800" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="801" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A801" s="2">
+        <v>799</v>
+      </c>
+      <c r="B801" s="2">
+        <f t="shared" si="26"/>
+        <v>1.1277512332579321E+103</v>
+      </c>
+      <c r="C801" s="1">
+        <v>30</v>
+      </c>
+      <c r="D801" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E801" s="1">
+        <v>3</v>
+      </c>
+      <c r="F801" s="1">
+        <v>14</v>
+      </c>
+      <c r="G801" s="1">
+        <v>1</v>
+      </c>
+      <c r="H801" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I801" s="1">
+        <v>1</v>
+      </c>
+      <c r="J801" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K801" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L801" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="802" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A802" s="2">
+        <v>800</v>
+      </c>
+      <c r="B802" s="2">
+        <f t="shared" si="26"/>
+        <v>1.4660766032353119E+103</v>
+      </c>
+      <c r="C802" s="1">
+        <v>30</v>
+      </c>
+      <c r="D802" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E802" s="1">
+        <v>3</v>
+      </c>
+      <c r="F802" s="1">
+        <v>14</v>
+      </c>
+      <c r="G802" s="1">
+        <v>1</v>
+      </c>
+      <c r="H802" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I802" s="1">
+        <v>1</v>
+      </c>
+      <c r="J802" s="2">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+      <c r="K802" s="2">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="L802" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="803" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A803" s="2">
+        <v>801</v>
+      </c>
+      <c r="B803" s="2">
+        <f t="shared" si="26"/>
+        <v>1.9058995842059056E+103</v>
+      </c>
+      <c r="C803" s="1">
+        <v>30</v>
+      </c>
+      <c r="D803" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E803" s="1">
+        <v>3</v>
+      </c>
+      <c r="F803" s="1">
+        <v>14</v>
+      </c>
+      <c r="G803" s="1">
+        <v>1</v>
+      </c>
+      <c r="H803" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I803" s="1">
+        <v>1</v>
+      </c>
+      <c r="J803" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K803" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L803" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="804" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A804" s="2">
+        <v>802</v>
+      </c>
+      <c r="B804" s="2">
+        <f t="shared" si="26"/>
+        <v>2.4776694594676774E+103</v>
+      </c>
+      <c r="C804" s="1">
+        <v>30</v>
+      </c>
+      <c r="D804" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E804" s="1">
+        <v>3</v>
+      </c>
+      <c r="F804" s="1">
+        <v>14</v>
+      </c>
+      <c r="G804" s="1">
+        <v>1</v>
+      </c>
+      <c r="H804" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I804" s="1">
+        <v>1</v>
+      </c>
+      <c r="J804" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K804" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L804" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="805" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A805" s="2">
+        <v>803</v>
+      </c>
+      <c r="B805" s="2">
+        <f t="shared" si="26"/>
+        <v>3.2209702973079807E+103</v>
+      </c>
+      <c r="C805" s="1">
+        <v>30</v>
+      </c>
+      <c r="D805" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E805" s="1">
+        <v>3</v>
+      </c>
+      <c r="F805" s="1">
+        <v>14</v>
+      </c>
+      <c r="G805" s="1">
+        <v>1</v>
+      </c>
+      <c r="H805" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I805" s="1">
+        <v>1</v>
+      </c>
+      <c r="J805" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K805" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L805" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="806" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A806" s="2">
+        <v>804</v>
+      </c>
+      <c r="B806" s="2">
+        <f t="shared" si="26"/>
+        <v>4.1872613865003748E+103</v>
+      </c>
+      <c r="C806" s="1">
+        <v>30</v>
+      </c>
+      <c r="D806" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E806" s="1">
+        <v>3</v>
+      </c>
+      <c r="F806" s="1">
+        <v>14</v>
+      </c>
+      <c r="G806" s="1">
+        <v>1</v>
+      </c>
+      <c r="H806" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I806" s="1">
+        <v>1</v>
+      </c>
+      <c r="J806" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K806" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L806" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="807" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A807" s="2">
+        <v>805</v>
+      </c>
+      <c r="B807" s="2">
+        <f t="shared" si="26"/>
+        <v>5.4434398024504872E+103</v>
+      </c>
+      <c r="C807" s="1">
+        <v>30</v>
+      </c>
+      <c r="D807" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E807" s="1">
+        <v>3</v>
+      </c>
+      <c r="F807" s="1">
+        <v>14</v>
+      </c>
+      <c r="G807" s="1">
+        <v>1</v>
+      </c>
+      <c r="H807" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I807" s="1">
+        <v>1</v>
+      </c>
+      <c r="J807" s="2">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+      <c r="K807" s="2">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="L807" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="808" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A808" s="2">
+        <v>806</v>
+      </c>
+      <c r="B808" s="2">
+        <f t="shared" si="26"/>
+        <v>7.0764717431856335E+103</v>
+      </c>
+      <c r="C808" s="1">
+        <v>30</v>
+      </c>
+      <c r="D808" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E808" s="1">
+        <v>3</v>
+      </c>
+      <c r="F808" s="1">
+        <v>14</v>
+      </c>
+      <c r="G808" s="1">
+        <v>1</v>
+      </c>
+      <c r="H808" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I808" s="1">
+        <v>1</v>
+      </c>
+      <c r="J808" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K808" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L808" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="809" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A809" s="2">
+        <v>807</v>
+      </c>
+      <c r="B809" s="2">
+        <f t="shared" si="26"/>
+        <v>9.1994132661413234E+103</v>
+      </c>
+      <c r="C809" s="1">
+        <v>30</v>
+      </c>
+      <c r="D809" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E809" s="1">
+        <v>3</v>
+      </c>
+      <c r="F809" s="1">
+        <v>14</v>
+      </c>
+      <c r="G809" s="1">
+        <v>1</v>
+      </c>
+      <c r="H809" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I809" s="1">
+        <v>1</v>
+      </c>
+      <c r="J809" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K809" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L809" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="810" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A810" s="2">
+        <v>808</v>
+      </c>
+      <c r="B810" s="2">
+        <f t="shared" si="26"/>
+        <v>1.1959237245983721E+104</v>
+      </c>
+      <c r="C810" s="1">
+        <v>30</v>
+      </c>
+      <c r="D810" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E810" s="1">
+        <v>3</v>
+      </c>
+      <c r="F810" s="1">
+        <v>14</v>
+      </c>
+      <c r="G810" s="1">
+        <v>1</v>
+      </c>
+      <c r="H810" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I810" s="1">
+        <v>1</v>
+      </c>
+      <c r="J810" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K810" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L810" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="811" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A811" s="2">
+        <v>809</v>
+      </c>
+      <c r="B811" s="2">
+        <f t="shared" si="26"/>
+        <v>1.5547008419778839E+104</v>
+      </c>
+      <c r="C811" s="1">
+        <v>30</v>
+      </c>
+      <c r="D811" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E811" s="1">
+        <v>3</v>
+      </c>
+      <c r="F811" s="1">
+        <v>14</v>
+      </c>
+      <c r="G811" s="1">
+        <v>1</v>
+      </c>
+      <c r="H811" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I811" s="1">
+        <v>1</v>
+      </c>
+      <c r="J811" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K811" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L811" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="812" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A812" s="2">
+        <v>810</v>
+      </c>
+      <c r="B812" s="2">
+        <f t="shared" si="26"/>
+        <v>2.0211110945712492E+104</v>
+      </c>
+      <c r="C812" s="1">
+        <v>30</v>
+      </c>
+      <c r="D812" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E812" s="1">
+        <v>3</v>
+      </c>
+      <c r="F812" s="1">
+        <v>14</v>
+      </c>
+      <c r="G812" s="1">
+        <v>1</v>
+      </c>
+      <c r="H812" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I812" s="1">
+        <v>1</v>
+      </c>
+      <c r="J812" s="2">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+      <c r="K812" s="2">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="L812" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="813" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A813" s="2">
+        <v>811</v>
+      </c>
+      <c r="B813" s="2">
+        <f t="shared" si="26"/>
+        <v>2.6274444229426241E+104</v>
+      </c>
+      <c r="C813" s="1">
+        <v>30</v>
+      </c>
+      <c r="D813" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E813" s="1">
+        <v>3</v>
+      </c>
+      <c r="F813" s="1">
+        <v>14</v>
+      </c>
+      <c r="G813" s="1">
+        <v>1</v>
+      </c>
+      <c r="H813" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I813" s="1">
+        <v>1</v>
+      </c>
+      <c r="J813" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K813" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L813" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="814" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A814" s="2">
+        <v>812</v>
+      </c>
+      <c r="B814" s="2">
+        <f t="shared" si="26"/>
+        <v>3.4156777498254118E+104</v>
+      </c>
+      <c r="C814" s="1">
+        <v>30</v>
+      </c>
+      <c r="D814" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E814" s="1">
+        <v>3</v>
+      </c>
+      <c r="F814" s="1">
+        <v>14</v>
+      </c>
+      <c r="G814" s="1">
+        <v>1</v>
+      </c>
+      <c r="H814" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I814" s="1">
+        <v>1</v>
+      </c>
+      <c r="J814" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K814" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L814" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="815" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A815" s="2">
+        <v>813</v>
+      </c>
+      <c r="B815" s="2">
+        <f t="shared" si="26"/>
+        <v>4.4403810747730353E+104</v>
+      </c>
+      <c r="C815" s="1">
+        <v>30</v>
+      </c>
+      <c r="D815" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E815" s="1">
+        <v>3</v>
+      </c>
+      <c r="F815" s="1">
+        <v>14</v>
+      </c>
+      <c r="G815" s="1">
+        <v>1</v>
+      </c>
+      <c r="H815" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I815" s="1">
+        <v>1</v>
+      </c>
+      <c r="J815" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K815" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L815" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="816" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A816" s="2">
+        <v>814</v>
+      </c>
+      <c r="B816" s="2">
+        <f t="shared" si="26"/>
+        <v>5.7724953972049463E+104</v>
+      </c>
+      <c r="C816" s="1">
+        <v>30</v>
+      </c>
+      <c r="D816" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E816" s="1">
+        <v>3</v>
+      </c>
+      <c r="F816" s="1">
+        <v>14</v>
+      </c>
+      <c r="G816" s="1">
+        <v>1</v>
+      </c>
+      <c r="H816" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I816" s="1">
+        <v>1</v>
+      </c>
+      <c r="J816" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K816" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L816" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="817" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A817" s="2">
+        <v>815</v>
+      </c>
+      <c r="B817" s="2">
+        <f t="shared" si="26"/>
+        <v>7.5042440163664311E+104</v>
+      </c>
+      <c r="C817" s="1">
+        <v>30</v>
+      </c>
+      <c r="D817" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E817" s="1">
+        <v>3</v>
+      </c>
+      <c r="F817" s="1">
+        <v>14</v>
+      </c>
+      <c r="G817" s="1">
+        <v>1</v>
+      </c>
+      <c r="H817" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I817" s="1">
+        <v>1</v>
+      </c>
+      <c r="J817" s="2">
+        <f t="shared" si="29"/>
+        <v>14</v>
+      </c>
+      <c r="K817" s="2">
+        <f t="shared" si="30"/>
+        <v>4</v>
+      </c>
+      <c r="L817" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="818" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A818" s="2">
+        <v>816</v>
+      </c>
+      <c r="B818" s="2">
+        <f t="shared" si="26"/>
+        <v>9.7555172212763609E+104</v>
+      </c>
+      <c r="C818" s="1">
+        <v>30</v>
+      </c>
+      <c r="D818" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E818" s="1">
+        <v>3</v>
+      </c>
+      <c r="F818" s="1">
+        <v>14</v>
+      </c>
+      <c r="G818" s="1">
+        <v>1</v>
+      </c>
+      <c r="H818" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I818" s="1">
+        <v>1</v>
+      </c>
+      <c r="J818" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K818" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L818" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="819" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A819" s="2">
+        <v>817</v>
+      </c>
+      <c r="B819" s="2">
+        <f t="shared" si="26"/>
+        <v>1.268217238765927E+105</v>
+      </c>
+      <c r="C819" s="1">
+        <v>30</v>
+      </c>
+      <c r="D819" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E819" s="1">
+        <v>3</v>
+      </c>
+      <c r="F819" s="1">
+        <v>14</v>
+      </c>
+      <c r="G819" s="1">
+        <v>1</v>
+      </c>
+      <c r="H819" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I819" s="1">
+        <v>1</v>
+      </c>
+      <c r="J819" s="2">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="K819" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L819" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="820" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A820" s="2">
+        <v>818</v>
+      </c>
+      <c r="B820" s="2">
+        <f t="shared" si="26"/>
+        <v>1.6486824103957053E+105</v>
+      </c>
+      <c r="C820" s="1">
+        <v>30</v>
+      </c>
+      <c r="D820" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E820" s="1">
+        <v>3</v>
+      </c>
+      <c r="F820" s="1">
+        <v>14</v>
+      </c>
+      <c r="G820" s="1">
+        <v>1</v>
+      </c>
+      <c r="H820" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I820" s="1">
+        <v>1</v>
+      </c>
+      <c r="J820" s="2">
+        <f t="shared" ref="J820:J824" si="31">IF(MOD(A820,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K820" s="2">
+        <f t="shared" ref="K820:K824" si="32">IF(J820=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L820" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="821" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A821" s="2">
+        <v>819</v>
+      </c>
+      <c r="B821" s="2">
+        <f t="shared" si="26"/>
+        <v>2.1432871335144169E+105</v>
+      </c>
+      <c r="C821" s="1">
+        <v>30</v>
+      </c>
+      <c r="D821" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E821" s="1">
+        <v>3</v>
+      </c>
+      <c r="F821" s="1">
+        <v>14</v>
+      </c>
+      <c r="G821" s="1">
+        <v>1</v>
+      </c>
+      <c r="H821" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I821" s="1">
+        <v>1</v>
+      </c>
+      <c r="J821" s="2">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="K821" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L821" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="822" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A822" s="2">
+        <v>820</v>
+      </c>
+      <c r="B822" s="2">
+        <f t="shared" si="26"/>
+        <v>2.7862732735687423E+105</v>
+      </c>
+      <c r="C822" s="1">
+        <v>30</v>
+      </c>
+      <c r="D822" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E822" s="1">
+        <v>3</v>
+      </c>
+      <c r="F822" s="1">
+        <v>14</v>
+      </c>
+      <c r="G822" s="1">
+        <v>1</v>
+      </c>
+      <c r="H822" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I822" s="1">
+        <v>1</v>
+      </c>
+      <c r="J822" s="2">
+        <f t="shared" si="31"/>
+        <v>14</v>
+      </c>
+      <c r="K822" s="2">
+        <f t="shared" si="32"/>
+        <v>4</v>
+      </c>
+      <c r="L822" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="823" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A823" s="2">
+        <v>821</v>
+      </c>
+      <c r="B823" s="2">
+        <f t="shared" si="26"/>
+        <v>3.6221552556393649E+105</v>
+      </c>
+      <c r="C823" s="1">
+        <v>30</v>
+      </c>
+      <c r="D823" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E823" s="1">
+        <v>3</v>
+      </c>
+      <c r="F823" s="1">
+        <v>14</v>
+      </c>
+      <c r="G823" s="1">
+        <v>1</v>
+      </c>
+      <c r="H823" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I823" s="1">
+        <v>1</v>
+      </c>
+      <c r="J823" s="2">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="K823" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L823" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="824" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A824" s="2">
+        <v>822</v>
+      </c>
+      <c r="B824" s="2">
+        <f t="shared" si="26"/>
+        <v>4.7088018323311745E+105</v>
+      </c>
+      <c r="C824" s="1">
+        <v>30</v>
+      </c>
+      <c r="D824" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E824" s="1">
+        <v>3</v>
+      </c>
+      <c r="F824" s="1">
+        <v>14</v>
+      </c>
+      <c r="G824" s="1">
+        <v>1</v>
+      </c>
+      <c r="H824" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I824" s="1">
+        <v>1</v>
+      </c>
+      <c r="J824" s="2">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="K824" s="2">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L824" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7998CE8B-1021-42EA-B40E-F7C7B29A79EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8060E460-D9A9-48AE-AF2B-9F599C9BD615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -667,11 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L824"/>
+  <dimension ref="A1:L855"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A789" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N804" sqref="N804"/>
+      <pane ySplit="1" topLeftCell="A836" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E859" sqref="E859"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31191,7 +31191,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="2">
-        <f t="shared" ref="B773:B825" si="26">B772*1.3</f>
+        <f t="shared" ref="B773:B836" si="26">B772*1.3</f>
         <v>7.2744379893348752E+99</v>
       </c>
       <c r="C773" s="1">
@@ -31683,7 +31683,7 @@
         <v>783</v>
       </c>
       <c r="B785" s="2">
-        <f t="shared" si="26"/>
+        <f>B784*1.3</f>
         <v>1.6948047549373351E+101</v>
       </c>
       <c r="C785" s="1">
@@ -33143,11 +33143,11 @@
         <v>1</v>
       </c>
       <c r="J820" s="2">
-        <f t="shared" ref="J820:J824" si="31">IF(MOD(A820,5)=0,14,-1)</f>
+        <f t="shared" ref="J820:J825" si="31">IF(MOD(A820,5)=0,14,-1)</f>
         <v>-1</v>
       </c>
       <c r="K820" s="2">
-        <f t="shared" ref="K820:K824" si="32">IF(J820=14,4,0)</f>
+        <f t="shared" ref="K820:K825" si="32">IF(J820=14,4,0)</f>
         <v>0</v>
       </c>
       <c r="L820" s="1">
@@ -33315,6 +33315,1277 @@
         <v>0</v>
       </c>
       <c r="L824" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="825" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A825" s="2">
+        <v>823</v>
+      </c>
+      <c r="B825" s="2">
+        <f>B824*1.5</f>
+        <v>7.0632027484967618E+105</v>
+      </c>
+      <c r="C825" s="1">
+        <v>30</v>
+      </c>
+      <c r="D825" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E825" s="1">
+        <v>3</v>
+      </c>
+      <c r="F825" s="1">
+        <v>14</v>
+      </c>
+      <c r="G825" s="1">
+        <v>1</v>
+      </c>
+      <c r="H825" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I825" s="1">
+        <v>1</v>
+      </c>
+      <c r="J825" s="2">
+        <f t="shared" ref="J825" si="33">IF(MOD(A825,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K825" s="2">
+        <f t="shared" ref="K825" si="34">IF(J825=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L825" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="826" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A826" s="2">
+        <v>824</v>
+      </c>
+      <c r="B826" s="2">
+        <f t="shared" ref="B826:B847" si="35">B825*1.5</f>
+        <v>1.0594804122745142E+106</v>
+      </c>
+      <c r="C826" s="1">
+        <v>30</v>
+      </c>
+      <c r="D826" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E826" s="1">
+        <v>3</v>
+      </c>
+      <c r="F826" s="1">
+        <v>14</v>
+      </c>
+      <c r="G826" s="1">
+        <v>1</v>
+      </c>
+      <c r="H826" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I826" s="1">
+        <v>1</v>
+      </c>
+      <c r="J826" s="2">
+        <f t="shared" ref="J826:J827" si="36">IF(MOD(A826,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K826" s="2">
+        <f t="shared" ref="K826:K827" si="37">IF(J826=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L826" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="827" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A827" s="2">
+        <v>825</v>
+      </c>
+      <c r="B827" s="2">
+        <f t="shared" si="35"/>
+        <v>1.5892206184117712E+106</v>
+      </c>
+      <c r="C827" s="1">
+        <v>30</v>
+      </c>
+      <c r="D827" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E827" s="1">
+        <v>3</v>
+      </c>
+      <c r="F827" s="1">
+        <v>14</v>
+      </c>
+      <c r="G827" s="1">
+        <v>1</v>
+      </c>
+      <c r="H827" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I827" s="1">
+        <v>1</v>
+      </c>
+      <c r="J827" s="2">
+        <f t="shared" si="36"/>
+        <v>14</v>
+      </c>
+      <c r="K827" s="2">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
+      <c r="L827" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="828" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A828" s="2">
+        <v>826</v>
+      </c>
+      <c r="B828" s="2">
+        <f t="shared" si="35"/>
+        <v>2.3838309276176566E+106</v>
+      </c>
+      <c r="C828" s="1">
+        <v>30</v>
+      </c>
+      <c r="D828" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E828" s="1">
+        <v>3</v>
+      </c>
+      <c r="F828" s="1">
+        <v>14</v>
+      </c>
+      <c r="G828" s="1">
+        <v>1</v>
+      </c>
+      <c r="H828" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I828" s="1">
+        <v>1</v>
+      </c>
+      <c r="J828" s="2">
+        <f t="shared" ref="J828:J844" si="38">IF(MOD(A828,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K828" s="2">
+        <f t="shared" ref="K828:K844" si="39">IF(J828=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L828" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="829" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A829" s="2">
+        <v>827</v>
+      </c>
+      <c r="B829" s="2">
+        <f t="shared" si="35"/>
+        <v>3.575746391426485E+106</v>
+      </c>
+      <c r="C829" s="1">
+        <v>30</v>
+      </c>
+      <c r="D829" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E829" s="1">
+        <v>3</v>
+      </c>
+      <c r="F829" s="1">
+        <v>14</v>
+      </c>
+      <c r="G829" s="1">
+        <v>1</v>
+      </c>
+      <c r="H829" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I829" s="1">
+        <v>1</v>
+      </c>
+      <c r="J829" s="2">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="K829" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L829" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="830" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A830" s="2">
+        <v>828</v>
+      </c>
+      <c r="B830" s="2">
+        <f t="shared" si="35"/>
+        <v>5.3636195871397278E+106</v>
+      </c>
+      <c r="C830" s="1">
+        <v>30</v>
+      </c>
+      <c r="D830" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E830" s="1">
+        <v>3</v>
+      </c>
+      <c r="F830" s="1">
+        <v>14</v>
+      </c>
+      <c r="G830" s="1">
+        <v>1</v>
+      </c>
+      <c r="H830" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I830" s="1">
+        <v>1</v>
+      </c>
+      <c r="J830" s="2">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="K830" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L830" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="831" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A831" s="2">
+        <v>829</v>
+      </c>
+      <c r="B831" s="2">
+        <f t="shared" si="35"/>
+        <v>8.0454293807095918E+106</v>
+      </c>
+      <c r="C831" s="1">
+        <v>30</v>
+      </c>
+      <c r="D831" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E831" s="1">
+        <v>3</v>
+      </c>
+      <c r="F831" s="1">
+        <v>14</v>
+      </c>
+      <c r="G831" s="1">
+        <v>1</v>
+      </c>
+      <c r="H831" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I831" s="1">
+        <v>1</v>
+      </c>
+      <c r="J831" s="2">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="K831" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L831" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="832" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A832" s="2">
+        <v>830</v>
+      </c>
+      <c r="B832" s="2">
+        <f t="shared" si="35"/>
+        <v>1.2068144071064388E+107</v>
+      </c>
+      <c r="C832" s="1">
+        <v>30</v>
+      </c>
+      <c r="D832" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E832" s="1">
+        <v>3</v>
+      </c>
+      <c r="F832" s="1">
+        <v>14</v>
+      </c>
+      <c r="G832" s="1">
+        <v>1</v>
+      </c>
+      <c r="H832" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I832" s="1">
+        <v>1</v>
+      </c>
+      <c r="J832" s="2">
+        <f t="shared" si="38"/>
+        <v>14</v>
+      </c>
+      <c r="K832" s="2">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="L832" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="833" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A833" s="2">
+        <v>831</v>
+      </c>
+      <c r="B833" s="2">
+        <f t="shared" si="35"/>
+        <v>1.8102216106596581E+107</v>
+      </c>
+      <c r="C833" s="1">
+        <v>30</v>
+      </c>
+      <c r="D833" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E833" s="1">
+        <v>3</v>
+      </c>
+      <c r="F833" s="1">
+        <v>14</v>
+      </c>
+      <c r="G833" s="1">
+        <v>1</v>
+      </c>
+      <c r="H833" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I833" s="1">
+        <v>1</v>
+      </c>
+      <c r="J833" s="2">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="K833" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L833" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="834" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A834" s="2">
+        <v>832</v>
+      </c>
+      <c r="B834" s="2">
+        <f t="shared" si="35"/>
+        <v>2.7153324159894869E+107</v>
+      </c>
+      <c r="C834" s="1">
+        <v>30</v>
+      </c>
+      <c r="D834" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E834" s="1">
+        <v>3</v>
+      </c>
+      <c r="F834" s="1">
+        <v>14</v>
+      </c>
+      <c r="G834" s="1">
+        <v>1</v>
+      </c>
+      <c r="H834" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I834" s="1">
+        <v>1</v>
+      </c>
+      <c r="J834" s="2">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="K834" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L834" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="835" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A835" s="2">
+        <v>833</v>
+      </c>
+      <c r="B835" s="2">
+        <f t="shared" si="35"/>
+        <v>4.0729986239842301E+107</v>
+      </c>
+      <c r="C835" s="1">
+        <v>30</v>
+      </c>
+      <c r="D835" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E835" s="1">
+        <v>3</v>
+      </c>
+      <c r="F835" s="1">
+        <v>14</v>
+      </c>
+      <c r="G835" s="1">
+        <v>1</v>
+      </c>
+      <c r="H835" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I835" s="1">
+        <v>1</v>
+      </c>
+      <c r="J835" s="2">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="K835" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L835" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="836" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A836" s="2">
+        <v>834</v>
+      </c>
+      <c r="B836" s="2">
+        <f t="shared" si="35"/>
+        <v>6.1094979359763451E+107</v>
+      </c>
+      <c r="C836" s="1">
+        <v>30</v>
+      </c>
+      <c r="D836" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E836" s="1">
+        <v>3</v>
+      </c>
+      <c r="F836" s="1">
+        <v>14</v>
+      </c>
+      <c r="G836" s="1">
+        <v>1</v>
+      </c>
+      <c r="H836" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I836" s="1">
+        <v>1</v>
+      </c>
+      <c r="J836" s="2">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="K836" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L836" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="837" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A837" s="2">
+        <v>835</v>
+      </c>
+      <c r="B837" s="2">
+        <f t="shared" si="35"/>
+        <v>9.1642469039645177E+107</v>
+      </c>
+      <c r="C837" s="1">
+        <v>30</v>
+      </c>
+      <c r="D837" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E837" s="1">
+        <v>3</v>
+      </c>
+      <c r="F837" s="1">
+        <v>14</v>
+      </c>
+      <c r="G837" s="1">
+        <v>1</v>
+      </c>
+      <c r="H837" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I837" s="1">
+        <v>1</v>
+      </c>
+      <c r="J837" s="2">
+        <f t="shared" si="38"/>
+        <v>14</v>
+      </c>
+      <c r="K837" s="2">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="L837" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="838" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A838" s="2">
+        <v>836</v>
+      </c>
+      <c r="B838" s="2">
+        <f t="shared" si="35"/>
+        <v>1.3746370355946778E+108</v>
+      </c>
+      <c r="C838" s="1">
+        <v>30</v>
+      </c>
+      <c r="D838" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E838" s="1">
+        <v>3</v>
+      </c>
+      <c r="F838" s="1">
+        <v>14</v>
+      </c>
+      <c r="G838" s="1">
+        <v>1</v>
+      </c>
+      <c r="H838" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I838" s="1">
+        <v>1</v>
+      </c>
+      <c r="J838" s="2">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="K838" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L838" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="839" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A839" s="2">
+        <v>837</v>
+      </c>
+      <c r="B839" s="2">
+        <f t="shared" si="35"/>
+        <v>2.0619555533920167E+108</v>
+      </c>
+      <c r="C839" s="1">
+        <v>30</v>
+      </c>
+      <c r="D839" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E839" s="1">
+        <v>3</v>
+      </c>
+      <c r="F839" s="1">
+        <v>14</v>
+      </c>
+      <c r="G839" s="1">
+        <v>1</v>
+      </c>
+      <c r="H839" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I839" s="1">
+        <v>1</v>
+      </c>
+      <c r="J839" s="2">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="K839" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L839" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="840" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A840" s="2">
+        <v>838</v>
+      </c>
+      <c r="B840" s="2">
+        <f t="shared" si="35"/>
+        <v>3.0929333300880251E+108</v>
+      </c>
+      <c r="C840" s="1">
+        <v>30</v>
+      </c>
+      <c r="D840" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E840" s="1">
+        <v>3</v>
+      </c>
+      <c r="F840" s="1">
+        <v>14</v>
+      </c>
+      <c r="G840" s="1">
+        <v>1</v>
+      </c>
+      <c r="H840" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I840" s="1">
+        <v>1</v>
+      </c>
+      <c r="J840" s="2">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="K840" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L840" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="841" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A841" s="2">
+        <v>839</v>
+      </c>
+      <c r="B841" s="2">
+        <f t="shared" si="35"/>
+        <v>4.6393999951320375E+108</v>
+      </c>
+      <c r="C841" s="1">
+        <v>30</v>
+      </c>
+      <c r="D841" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E841" s="1">
+        <v>3</v>
+      </c>
+      <c r="F841" s="1">
+        <v>14</v>
+      </c>
+      <c r="G841" s="1">
+        <v>1</v>
+      </c>
+      <c r="H841" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I841" s="1">
+        <v>1</v>
+      </c>
+      <c r="J841" s="2">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="K841" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L841" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="842" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A842" s="2">
+        <v>840</v>
+      </c>
+      <c r="B842" s="2">
+        <f t="shared" si="35"/>
+        <v>6.9590999926980562E+108</v>
+      </c>
+      <c r="C842" s="1">
+        <v>30</v>
+      </c>
+      <c r="D842" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E842" s="1">
+        <v>3</v>
+      </c>
+      <c r="F842" s="1">
+        <v>14</v>
+      </c>
+      <c r="G842" s="1">
+        <v>1</v>
+      </c>
+      <c r="H842" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I842" s="1">
+        <v>1</v>
+      </c>
+      <c r="J842" s="2">
+        <f t="shared" si="38"/>
+        <v>14</v>
+      </c>
+      <c r="K842" s="2">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="L842" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="843" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A843" s="2">
+        <v>841</v>
+      </c>
+      <c r="B843" s="2">
+        <f t="shared" si="35"/>
+        <v>1.0438649989047084E+109</v>
+      </c>
+      <c r="C843" s="1">
+        <v>30</v>
+      </c>
+      <c r="D843" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E843" s="1">
+        <v>3</v>
+      </c>
+      <c r="F843" s="1">
+        <v>14</v>
+      </c>
+      <c r="G843" s="1">
+        <v>1</v>
+      </c>
+      <c r="H843" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I843" s="1">
+        <v>1</v>
+      </c>
+      <c r="J843" s="2">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="K843" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L843" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="844" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A844" s="2">
+        <v>842</v>
+      </c>
+      <c r="B844" s="2">
+        <f t="shared" si="35"/>
+        <v>1.5657974983570626E+109</v>
+      </c>
+      <c r="C844" s="1">
+        <v>30</v>
+      </c>
+      <c r="D844" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E844" s="1">
+        <v>3</v>
+      </c>
+      <c r="F844" s="1">
+        <v>14</v>
+      </c>
+      <c r="G844" s="1">
+        <v>1</v>
+      </c>
+      <c r="H844" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I844" s="1">
+        <v>1</v>
+      </c>
+      <c r="J844" s="2">
+        <f t="shared" si="38"/>
+        <v>-1</v>
+      </c>
+      <c r="K844" s="2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L844" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="845" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A845" s="2">
+        <v>843</v>
+      </c>
+      <c r="B845" s="2">
+        <f t="shared" si="35"/>
+        <v>2.3486962475355937E+109</v>
+      </c>
+      <c r="C845" s="1">
+        <v>30</v>
+      </c>
+      <c r="D845" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E845" s="1">
+        <v>3</v>
+      </c>
+      <c r="F845" s="1">
+        <v>14</v>
+      </c>
+      <c r="G845" s="1">
+        <v>1</v>
+      </c>
+      <c r="H845" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I845" s="1">
+        <v>1</v>
+      </c>
+      <c r="J845" s="2">
+        <f t="shared" ref="J845:J847" si="40">IF(MOD(A845,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K845" s="2">
+        <f t="shared" ref="K845:K847" si="41">IF(J845=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L845" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="846" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A846" s="2">
+        <v>844</v>
+      </c>
+      <c r="B846" s="2">
+        <f t="shared" si="35"/>
+        <v>3.5230443713033906E+109</v>
+      </c>
+      <c r="C846" s="1">
+        <v>30</v>
+      </c>
+      <c r="D846" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E846" s="1">
+        <v>3</v>
+      </c>
+      <c r="F846" s="1">
+        <v>14</v>
+      </c>
+      <c r="G846" s="1">
+        <v>1</v>
+      </c>
+      <c r="H846" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I846" s="1">
+        <v>1</v>
+      </c>
+      <c r="J846" s="2">
+        <f t="shared" si="40"/>
+        <v>-1</v>
+      </c>
+      <c r="K846" s="2">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="L846" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="847" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A847" s="2">
+        <v>845</v>
+      </c>
+      <c r="B847" s="2">
+        <f t="shared" si="35"/>
+        <v>5.2845665569550861E+109</v>
+      </c>
+      <c r="C847" s="1">
+        <v>30</v>
+      </c>
+      <c r="D847" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E847" s="1">
+        <v>3</v>
+      </c>
+      <c r="F847" s="1">
+        <v>14</v>
+      </c>
+      <c r="G847" s="1">
+        <v>1</v>
+      </c>
+      <c r="H847" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I847" s="1">
+        <v>1</v>
+      </c>
+      <c r="J847" s="2">
+        <f t="shared" si="40"/>
+        <v>14</v>
+      </c>
+      <c r="K847" s="2">
+        <f t="shared" si="41"/>
+        <v>4</v>
+      </c>
+      <c r="L847" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="848" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A848" s="2">
+        <v>846</v>
+      </c>
+      <c r="B848" s="2">
+        <f t="shared" ref="B848:B855" si="42">B847*1.5</f>
+        <v>7.92684983543263E+109</v>
+      </c>
+      <c r="C848" s="1">
+        <v>30</v>
+      </c>
+      <c r="D848" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E848" s="1">
+        <v>3</v>
+      </c>
+      <c r="F848" s="1">
+        <v>14</v>
+      </c>
+      <c r="G848" s="1">
+        <v>1</v>
+      </c>
+      <c r="H848" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I848" s="1">
+        <v>1</v>
+      </c>
+      <c r="J848" s="2">
+        <f t="shared" ref="J848:J855" si="43">IF(MOD(A848,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K848" s="2">
+        <f t="shared" ref="K848:K855" si="44">IF(J848=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L848" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="849" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A849" s="2">
+        <v>847</v>
+      </c>
+      <c r="B849" s="2">
+        <f t="shared" si="42"/>
+        <v>1.1890274753148945E+110</v>
+      </c>
+      <c r="C849" s="1">
+        <v>30</v>
+      </c>
+      <c r="D849" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E849" s="1">
+        <v>3</v>
+      </c>
+      <c r="F849" s="1">
+        <v>14</v>
+      </c>
+      <c r="G849" s="1">
+        <v>1</v>
+      </c>
+      <c r="H849" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I849" s="1">
+        <v>1</v>
+      </c>
+      <c r="J849" s="2">
+        <f t="shared" si="43"/>
+        <v>-1</v>
+      </c>
+      <c r="K849" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L849" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="850" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A850" s="2">
+        <v>848</v>
+      </c>
+      <c r="B850" s="2">
+        <f t="shared" si="42"/>
+        <v>1.7835412129723418E+110</v>
+      </c>
+      <c r="C850" s="1">
+        <v>30</v>
+      </c>
+      <c r="D850" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E850" s="1">
+        <v>3</v>
+      </c>
+      <c r="F850" s="1">
+        <v>14</v>
+      </c>
+      <c r="G850" s="1">
+        <v>1</v>
+      </c>
+      <c r="H850" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I850" s="1">
+        <v>1</v>
+      </c>
+      <c r="J850" s="2">
+        <f t="shared" si="43"/>
+        <v>-1</v>
+      </c>
+      <c r="K850" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L850" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="851" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A851" s="2">
+        <v>849</v>
+      </c>
+      <c r="B851" s="2">
+        <f t="shared" si="42"/>
+        <v>2.6753118194585125E+110</v>
+      </c>
+      <c r="C851" s="1">
+        <v>30</v>
+      </c>
+      <c r="D851" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E851" s="1">
+        <v>3</v>
+      </c>
+      <c r="F851" s="1">
+        <v>14</v>
+      </c>
+      <c r="G851" s="1">
+        <v>1</v>
+      </c>
+      <c r="H851" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I851" s="1">
+        <v>1</v>
+      </c>
+      <c r="J851" s="2">
+        <f t="shared" si="43"/>
+        <v>-1</v>
+      </c>
+      <c r="K851" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L851" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="852" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A852" s="2">
+        <v>850</v>
+      </c>
+      <c r="B852" s="2">
+        <f t="shared" si="42"/>
+        <v>4.0129677291877687E+110</v>
+      </c>
+      <c r="C852" s="1">
+        <v>30</v>
+      </c>
+      <c r="D852" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E852" s="1">
+        <v>3</v>
+      </c>
+      <c r="F852" s="1">
+        <v>14</v>
+      </c>
+      <c r="G852" s="1">
+        <v>1</v>
+      </c>
+      <c r="H852" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I852" s="1">
+        <v>1</v>
+      </c>
+      <c r="J852" s="2">
+        <f t="shared" si="43"/>
+        <v>14</v>
+      </c>
+      <c r="K852" s="2">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="L852" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="853" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A853" s="2">
+        <v>851</v>
+      </c>
+      <c r="B853" s="2">
+        <f t="shared" si="42"/>
+        <v>6.0194515937816527E+110</v>
+      </c>
+      <c r="C853" s="1">
+        <v>30</v>
+      </c>
+      <c r="D853" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E853" s="1">
+        <v>3</v>
+      </c>
+      <c r="F853" s="1">
+        <v>14</v>
+      </c>
+      <c r="G853" s="1">
+        <v>1</v>
+      </c>
+      <c r="H853" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I853" s="1">
+        <v>1</v>
+      </c>
+      <c r="J853" s="2">
+        <f t="shared" si="43"/>
+        <v>-1</v>
+      </c>
+      <c r="K853" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L853" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="854" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A854" s="2">
+        <v>852</v>
+      </c>
+      <c r="B854" s="2">
+        <f t="shared" si="42"/>
+        <v>9.0291773906724797E+110</v>
+      </c>
+      <c r="C854" s="1">
+        <v>30</v>
+      </c>
+      <c r="D854" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E854" s="1">
+        <v>3</v>
+      </c>
+      <c r="F854" s="1">
+        <v>14</v>
+      </c>
+      <c r="G854" s="1">
+        <v>1</v>
+      </c>
+      <c r="H854" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I854" s="1">
+        <v>1</v>
+      </c>
+      <c r="J854" s="2">
+        <f t="shared" si="43"/>
+        <v>-1</v>
+      </c>
+      <c r="K854" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L854" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="855" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A855" s="2">
+        <v>853</v>
+      </c>
+      <c r="B855" s="2">
+        <f t="shared" si="42"/>
+        <v>1.354376608600872E+111</v>
+      </c>
+      <c r="C855" s="1">
+        <v>30</v>
+      </c>
+      <c r="D855" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E855" s="1">
+        <v>3</v>
+      </c>
+      <c r="F855" s="1">
+        <v>14</v>
+      </c>
+      <c r="G855" s="1">
+        <v>1</v>
+      </c>
+      <c r="H855" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I855" s="1">
+        <v>1</v>
+      </c>
+      <c r="J855" s="2">
+        <f t="shared" si="43"/>
+        <v>-1</v>
+      </c>
+      <c r="K855" s="2">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="L855" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8060E460-D9A9-48AE-AF2B-9F599C9BD615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08C0EE7-AB0D-4AA6-B22A-1C52E667D0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -667,11 +667,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L855"/>
+  <dimension ref="A1:L877"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A836" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E859" sqref="E859"/>
+      <pane ySplit="1" topLeftCell="A851" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B874" sqref="B874"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -31191,7 +31191,7 @@
         <v>771</v>
       </c>
       <c r="B773" s="2">
-        <f t="shared" ref="B773:B836" si="26">B772*1.3</f>
+        <f t="shared" ref="B773:B824" si="26">B772*1.3</f>
         <v>7.2744379893348752E+99</v>
       </c>
       <c r="C773" s="1">
@@ -33143,11 +33143,11 @@
         <v>1</v>
       </c>
       <c r="J820" s="2">
-        <f t="shared" ref="J820:J825" si="31">IF(MOD(A820,5)=0,14,-1)</f>
+        <f t="shared" ref="J820:J824" si="31">IF(MOD(A820,5)=0,14,-1)</f>
         <v>-1</v>
       </c>
       <c r="K820" s="2">
-        <f t="shared" ref="K820:K825" si="32">IF(J820=14,4,0)</f>
+        <f t="shared" ref="K820:K824" si="32">IF(J820=14,4,0)</f>
         <v>0</v>
       </c>
       <c r="L820" s="1">
@@ -34266,7 +34266,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="2">
-        <f t="shared" ref="B848:B855" si="42">B847*1.5</f>
+        <f t="shared" ref="B848:B877" si="42">B847*1.5</f>
         <v>7.92684983543263E+109</v>
       </c>
       <c r="C848" s="1">
@@ -34586,6 +34586,908 @@
         <v>0</v>
       </c>
       <c r="L855" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="856" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A856" s="2">
+        <v>854</v>
+      </c>
+      <c r="B856" s="2">
+        <f t="shared" si="42"/>
+        <v>2.0315649129013079E+111</v>
+      </c>
+      <c r="C856" s="1">
+        <v>30</v>
+      </c>
+      <c r="D856" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E856" s="1">
+        <v>3</v>
+      </c>
+      <c r="F856" s="1">
+        <v>14</v>
+      </c>
+      <c r="G856" s="1">
+        <v>1</v>
+      </c>
+      <c r="H856" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I856" s="1">
+        <v>1</v>
+      </c>
+      <c r="J856" s="2">
+        <f t="shared" ref="J856:J870" si="45">IF(MOD(A856,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K856" s="2">
+        <f t="shared" ref="K856:K870" si="46">IF(J856=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L856" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="857" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A857" s="2">
+        <v>855</v>
+      </c>
+      <c r="B857" s="2">
+        <f t="shared" si="42"/>
+        <v>3.0473473693519618E+111</v>
+      </c>
+      <c r="C857" s="1">
+        <v>30</v>
+      </c>
+      <c r="D857" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E857" s="1">
+        <v>3</v>
+      </c>
+      <c r="F857" s="1">
+        <v>14</v>
+      </c>
+      <c r="G857" s="1">
+        <v>1</v>
+      </c>
+      <c r="H857" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I857" s="1">
+        <v>1</v>
+      </c>
+      <c r="J857" s="2">
+        <f t="shared" si="45"/>
+        <v>14</v>
+      </c>
+      <c r="K857" s="2">
+        <f t="shared" si="46"/>
+        <v>4</v>
+      </c>
+      <c r="L857" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="858" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A858" s="2">
+        <v>856</v>
+      </c>
+      <c r="B858" s="2">
+        <f t="shared" si="42"/>
+        <v>4.5710210540279429E+111</v>
+      </c>
+      <c r="C858" s="1">
+        <v>30</v>
+      </c>
+      <c r="D858" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E858" s="1">
+        <v>3</v>
+      </c>
+      <c r="F858" s="1">
+        <v>14</v>
+      </c>
+      <c r="G858" s="1">
+        <v>1</v>
+      </c>
+      <c r="H858" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I858" s="1">
+        <v>1</v>
+      </c>
+      <c r="J858" s="2">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+      <c r="K858" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L858" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="859" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A859" s="2">
+        <v>857</v>
+      </c>
+      <c r="B859" s="2">
+        <f t="shared" si="42"/>
+        <v>6.8565315810419144E+111</v>
+      </c>
+      <c r="C859" s="1">
+        <v>30</v>
+      </c>
+      <c r="D859" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E859" s="1">
+        <v>3</v>
+      </c>
+      <c r="F859" s="1">
+        <v>14</v>
+      </c>
+      <c r="G859" s="1">
+        <v>1</v>
+      </c>
+      <c r="H859" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I859" s="1">
+        <v>1</v>
+      </c>
+      <c r="J859" s="2">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+      <c r="K859" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L859" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="860" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A860" s="2">
+        <v>858</v>
+      </c>
+      <c r="B860" s="2">
+        <f t="shared" si="42"/>
+        <v>1.0284797371562872E+112</v>
+      </c>
+      <c r="C860" s="1">
+        <v>30</v>
+      </c>
+      <c r="D860" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E860" s="1">
+        <v>3</v>
+      </c>
+      <c r="F860" s="1">
+        <v>14</v>
+      </c>
+      <c r="G860" s="1">
+        <v>1</v>
+      </c>
+      <c r="H860" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I860" s="1">
+        <v>1</v>
+      </c>
+      <c r="J860" s="2">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+      <c r="K860" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L860" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="861" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A861" s="2">
+        <v>859</v>
+      </c>
+      <c r="B861" s="2">
+        <f t="shared" si="42"/>
+        <v>1.5427196057344309E+112</v>
+      </c>
+      <c r="C861" s="1">
+        <v>30</v>
+      </c>
+      <c r="D861" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E861" s="1">
+        <v>3</v>
+      </c>
+      <c r="F861" s="1">
+        <v>14</v>
+      </c>
+      <c r="G861" s="1">
+        <v>1</v>
+      </c>
+      <c r="H861" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I861" s="1">
+        <v>1</v>
+      </c>
+      <c r="J861" s="2">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+      <c r="K861" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L861" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="862" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A862" s="2">
+        <v>860</v>
+      </c>
+      <c r="B862" s="2">
+        <f t="shared" si="42"/>
+        <v>2.3140794086016464E+112</v>
+      </c>
+      <c r="C862" s="1">
+        <v>30</v>
+      </c>
+      <c r="D862" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E862" s="1">
+        <v>3</v>
+      </c>
+      <c r="F862" s="1">
+        <v>14</v>
+      </c>
+      <c r="G862" s="1">
+        <v>1</v>
+      </c>
+      <c r="H862" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I862" s="1">
+        <v>1</v>
+      </c>
+      <c r="J862" s="2">
+        <f t="shared" si="45"/>
+        <v>14</v>
+      </c>
+      <c r="K862" s="2">
+        <f t="shared" si="46"/>
+        <v>4</v>
+      </c>
+      <c r="L862" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="863" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A863" s="2">
+        <v>861</v>
+      </c>
+      <c r="B863" s="2">
+        <f t="shared" si="42"/>
+        <v>3.4711191129024698E+112</v>
+      </c>
+      <c r="C863" s="1">
+        <v>30</v>
+      </c>
+      <c r="D863" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E863" s="1">
+        <v>3</v>
+      </c>
+      <c r="F863" s="1">
+        <v>14</v>
+      </c>
+      <c r="G863" s="1">
+        <v>1</v>
+      </c>
+      <c r="H863" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I863" s="1">
+        <v>1</v>
+      </c>
+      <c r="J863" s="2">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+      <c r="K863" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L863" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="864" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A864" s="2">
+        <v>862</v>
+      </c>
+      <c r="B864" s="2">
+        <f t="shared" si="42"/>
+        <v>5.2066786693537051E+112</v>
+      </c>
+      <c r="C864" s="1">
+        <v>30</v>
+      </c>
+      <c r="D864" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E864" s="1">
+        <v>3</v>
+      </c>
+      <c r="F864" s="1">
+        <v>14</v>
+      </c>
+      <c r="G864" s="1">
+        <v>1</v>
+      </c>
+      <c r="H864" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I864" s="1">
+        <v>1</v>
+      </c>
+      <c r="J864" s="2">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+      <c r="K864" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L864" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="865" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A865" s="2">
+        <v>863</v>
+      </c>
+      <c r="B865" s="2">
+        <f t="shared" si="42"/>
+        <v>7.8100180040305585E+112</v>
+      </c>
+      <c r="C865" s="1">
+        <v>30</v>
+      </c>
+      <c r="D865" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E865" s="1">
+        <v>3</v>
+      </c>
+      <c r="F865" s="1">
+        <v>14</v>
+      </c>
+      <c r="G865" s="1">
+        <v>1</v>
+      </c>
+      <c r="H865" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I865" s="1">
+        <v>1</v>
+      </c>
+      <c r="J865" s="2">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+      <c r="K865" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L865" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="866" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A866" s="2">
+        <v>864</v>
+      </c>
+      <c r="B866" s="2">
+        <f t="shared" si="42"/>
+        <v>1.1715027006045838E+113</v>
+      </c>
+      <c r="C866" s="1">
+        <v>30</v>
+      </c>
+      <c r="D866" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E866" s="1">
+        <v>3</v>
+      </c>
+      <c r="F866" s="1">
+        <v>14</v>
+      </c>
+      <c r="G866" s="1">
+        <v>1</v>
+      </c>
+      <c r="H866" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I866" s="1">
+        <v>1</v>
+      </c>
+      <c r="J866" s="2">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+      <c r="K866" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L866" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="867" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A867" s="2">
+        <v>865</v>
+      </c>
+      <c r="B867" s="2">
+        <f t="shared" si="42"/>
+        <v>1.7572540509068756E+113</v>
+      </c>
+      <c r="C867" s="1">
+        <v>30</v>
+      </c>
+      <c r="D867" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E867" s="1">
+        <v>3</v>
+      </c>
+      <c r="F867" s="1">
+        <v>14</v>
+      </c>
+      <c r="G867" s="1">
+        <v>1</v>
+      </c>
+      <c r="H867" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I867" s="1">
+        <v>1</v>
+      </c>
+      <c r="J867" s="2">
+        <f t="shared" si="45"/>
+        <v>14</v>
+      </c>
+      <c r="K867" s="2">
+        <f t="shared" si="46"/>
+        <v>4</v>
+      </c>
+      <c r="L867" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="868" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A868" s="2">
+        <v>866</v>
+      </c>
+      <c r="B868" s="2">
+        <f t="shared" si="42"/>
+        <v>2.6358810763603135E+113</v>
+      </c>
+      <c r="C868" s="1">
+        <v>30</v>
+      </c>
+      <c r="D868" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E868" s="1">
+        <v>3</v>
+      </c>
+      <c r="F868" s="1">
+        <v>14</v>
+      </c>
+      <c r="G868" s="1">
+        <v>1</v>
+      </c>
+      <c r="H868" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I868" s="1">
+        <v>1</v>
+      </c>
+      <c r="J868" s="2">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+      <c r="K868" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L868" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="869" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A869" s="2">
+        <v>867</v>
+      </c>
+      <c r="B869" s="2">
+        <f t="shared" si="42"/>
+        <v>3.95382161454047E+113</v>
+      </c>
+      <c r="C869" s="1">
+        <v>30</v>
+      </c>
+      <c r="D869" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E869" s="1">
+        <v>3</v>
+      </c>
+      <c r="F869" s="1">
+        <v>14</v>
+      </c>
+      <c r="G869" s="1">
+        <v>1</v>
+      </c>
+      <c r="H869" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I869" s="1">
+        <v>1</v>
+      </c>
+      <c r="J869" s="2">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+      <c r="K869" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L869" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="870" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A870" s="2">
+        <v>868</v>
+      </c>
+      <c r="B870" s="2">
+        <f t="shared" si="42"/>
+        <v>5.930732421810705E+113</v>
+      </c>
+      <c r="C870" s="1">
+        <v>30</v>
+      </c>
+      <c r="D870" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E870" s="1">
+        <v>3</v>
+      </c>
+      <c r="F870" s="1">
+        <v>14</v>
+      </c>
+      <c r="G870" s="1">
+        <v>1</v>
+      </c>
+      <c r="H870" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I870" s="1">
+        <v>1</v>
+      </c>
+      <c r="J870" s="2">
+        <f t="shared" si="45"/>
+        <v>-1</v>
+      </c>
+      <c r="K870" s="2">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="L870" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="871" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A871" s="2">
+        <v>869</v>
+      </c>
+      <c r="B871" s="2">
+        <f t="shared" si="42"/>
+        <v>8.8960986327160581E+113</v>
+      </c>
+      <c r="C871" s="1">
+        <v>30</v>
+      </c>
+      <c r="D871" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E871" s="1">
+        <v>3</v>
+      </c>
+      <c r="F871" s="1">
+        <v>14</v>
+      </c>
+      <c r="G871" s="1">
+        <v>1</v>
+      </c>
+      <c r="H871" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I871" s="1">
+        <v>1</v>
+      </c>
+      <c r="J871" s="2">
+        <f t="shared" ref="J871:J872" si="47">IF(MOD(A871,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K871" s="2">
+        <f t="shared" ref="K871:K872" si="48">IF(J871=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L871" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="872" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A872" s="2">
+        <v>870</v>
+      </c>
+      <c r="B872" s="2">
+        <f t="shared" si="42"/>
+        <v>1.3344147949074089E+114</v>
+      </c>
+      <c r="C872" s="1">
+        <v>30</v>
+      </c>
+      <c r="D872" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E872" s="1">
+        <v>3</v>
+      </c>
+      <c r="F872" s="1">
+        <v>14</v>
+      </c>
+      <c r="G872" s="1">
+        <v>1</v>
+      </c>
+      <c r="H872" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I872" s="1">
+        <v>1</v>
+      </c>
+      <c r="J872" s="2">
+        <f t="shared" si="47"/>
+        <v>14</v>
+      </c>
+      <c r="K872" s="2">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="L872" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="873" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A873" s="2">
+        <v>871</v>
+      </c>
+      <c r="B873" s="2">
+        <f t="shared" si="42"/>
+        <v>2.0016221923611133E+114</v>
+      </c>
+      <c r="C873" s="1">
+        <v>30</v>
+      </c>
+      <c r="D873" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E873" s="1">
+        <v>3</v>
+      </c>
+      <c r="F873" s="1">
+        <v>14</v>
+      </c>
+      <c r="G873" s="1">
+        <v>1</v>
+      </c>
+      <c r="H873" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I873" s="1">
+        <v>1</v>
+      </c>
+      <c r="J873" s="2">
+        <f t="shared" ref="J873:J877" si="49">IF(MOD(A873,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K873" s="2">
+        <f t="shared" ref="K873:K877" si="50">IF(J873=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L873" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="874" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A874" s="2">
+        <v>872</v>
+      </c>
+      <c r="B874" s="2">
+        <f t="shared" si="42"/>
+        <v>3.0024332885416697E+114</v>
+      </c>
+      <c r="C874" s="1">
+        <v>30</v>
+      </c>
+      <c r="D874" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E874" s="1">
+        <v>3</v>
+      </c>
+      <c r="F874" s="1">
+        <v>14</v>
+      </c>
+      <c r="G874" s="1">
+        <v>1</v>
+      </c>
+      <c r="H874" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I874" s="1">
+        <v>1</v>
+      </c>
+      <c r="J874" s="2">
+        <f t="shared" si="49"/>
+        <v>-1</v>
+      </c>
+      <c r="K874" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="L874" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="875" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A875" s="2">
+        <v>873</v>
+      </c>
+      <c r="B875" s="2">
+        <f t="shared" si="42"/>
+        <v>4.5036499328125045E+114</v>
+      </c>
+      <c r="C875" s="1">
+        <v>30</v>
+      </c>
+      <c r="D875" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E875" s="1">
+        <v>3</v>
+      </c>
+      <c r="F875" s="1">
+        <v>14</v>
+      </c>
+      <c r="G875" s="1">
+        <v>1</v>
+      </c>
+      <c r="H875" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I875" s="1">
+        <v>1</v>
+      </c>
+      <c r="J875" s="2">
+        <f t="shared" si="49"/>
+        <v>-1</v>
+      </c>
+      <c r="K875" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="L875" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="876" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A876" s="2">
+        <v>874</v>
+      </c>
+      <c r="B876" s="2">
+        <f t="shared" si="42"/>
+        <v>6.7554748992187567E+114</v>
+      </c>
+      <c r="C876" s="1">
+        <v>30</v>
+      </c>
+      <c r="D876" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E876" s="1">
+        <v>3</v>
+      </c>
+      <c r="F876" s="1">
+        <v>14</v>
+      </c>
+      <c r="G876" s="1">
+        <v>1</v>
+      </c>
+      <c r="H876" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I876" s="1">
+        <v>1</v>
+      </c>
+      <c r="J876" s="2">
+        <f t="shared" si="49"/>
+        <v>-1</v>
+      </c>
+      <c r="K876" s="2">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="L876" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="877" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A877" s="2">
+        <v>875</v>
+      </c>
+      <c r="B877" s="2">
+        <f t="shared" si="42"/>
+        <v>1.0133212348828136E+115</v>
+      </c>
+      <c r="C877" s="1">
+        <v>30</v>
+      </c>
+      <c r="D877" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E877" s="1">
+        <v>3</v>
+      </c>
+      <c r="F877" s="1">
+        <v>14</v>
+      </c>
+      <c r="G877" s="1">
+        <v>1</v>
+      </c>
+      <c r="H877" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I877" s="1">
+        <v>1</v>
+      </c>
+      <c r="J877" s="2">
+        <f t="shared" si="49"/>
+        <v>14</v>
+      </c>
+      <c r="K877" s="2">
+        <f t="shared" si="50"/>
+        <v>4</v>
+      </c>
+      <c r="L877" s="1">
         <v>13</v>
       </c>
     </row>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08C0EE7-AB0D-4AA6-B22A-1C52E667D0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEE6355-46B8-4CCE-AF57-7AF43D96FAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>hp</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,26 @@
     <t>라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -319,7 +339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -349,6 +369,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -667,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L877"/>
+  <dimension ref="A1:L906"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A851" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B874" sqref="B874"/>
+      <pane ySplit="1" topLeftCell="A880" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D911" sqref="D911"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -34266,7 +34289,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="2">
-        <f t="shared" ref="B848:B877" si="42">B847*1.5</f>
+        <f t="shared" ref="B848:B906" si="42">B847*1.5</f>
         <v>7.92684983543263E+109</v>
       </c>
       <c r="C848" s="1">
@@ -35488,6 +35511,1195 @@
         <v>4</v>
       </c>
       <c r="L877" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="878" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A878" s="2">
+        <v>876</v>
+      </c>
+      <c r="B878" s="2">
+        <f t="shared" si="42"/>
+        <v>1.5199818523242203E+115</v>
+      </c>
+      <c r="C878" s="1">
+        <v>30</v>
+      </c>
+      <c r="D878" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E878" s="1">
+        <v>3</v>
+      </c>
+      <c r="F878" s="1">
+        <v>14</v>
+      </c>
+      <c r="G878" s="1">
+        <v>1</v>
+      </c>
+      <c r="H878" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I878" s="1">
+        <v>1</v>
+      </c>
+      <c r="J878" s="2">
+        <f t="shared" ref="J878:J890" si="51">IF(MOD(A878,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K878" s="2">
+        <f t="shared" ref="K878:K890" si="52">IF(J878=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L878" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="879" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A879" s="2">
+        <v>877</v>
+      </c>
+      <c r="B879" s="2">
+        <f t="shared" si="42"/>
+        <v>2.2799727784863304E+115</v>
+      </c>
+      <c r="C879" s="1">
+        <v>30</v>
+      </c>
+      <c r="D879" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E879" s="1">
+        <v>3</v>
+      </c>
+      <c r="F879" s="1">
+        <v>14</v>
+      </c>
+      <c r="G879" s="1">
+        <v>1</v>
+      </c>
+      <c r="H879" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I879" s="1">
+        <v>1</v>
+      </c>
+      <c r="J879" s="2">
+        <f t="shared" si="51"/>
+        <v>-1</v>
+      </c>
+      <c r="K879" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L879" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="880" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A880" s="2">
+        <v>878</v>
+      </c>
+      <c r="B880" s="2">
+        <f t="shared" si="42"/>
+        <v>3.4199591677294956E+115</v>
+      </c>
+      <c r="C880" s="1">
+        <v>30</v>
+      </c>
+      <c r="D880" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E880" s="1">
+        <v>3</v>
+      </c>
+      <c r="F880" s="1">
+        <v>14</v>
+      </c>
+      <c r="G880" s="1">
+        <v>1</v>
+      </c>
+      <c r="H880" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I880" s="1">
+        <v>1</v>
+      </c>
+      <c r="J880" s="2">
+        <f t="shared" si="51"/>
+        <v>-1</v>
+      </c>
+      <c r="K880" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L880" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="881" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A881" s="2">
+        <v>879</v>
+      </c>
+      <c r="B881" s="2">
+        <f t="shared" si="42"/>
+        <v>5.1299387515942436E+115</v>
+      </c>
+      <c r="C881" s="1">
+        <v>30</v>
+      </c>
+      <c r="D881" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E881" s="1">
+        <v>3</v>
+      </c>
+      <c r="F881" s="1">
+        <v>14</v>
+      </c>
+      <c r="G881" s="1">
+        <v>1</v>
+      </c>
+      <c r="H881" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I881" s="1">
+        <v>1</v>
+      </c>
+      <c r="J881" s="2">
+        <f t="shared" si="51"/>
+        <v>-1</v>
+      </c>
+      <c r="K881" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L881" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="882" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A882" s="2">
+        <v>880</v>
+      </c>
+      <c r="B882" s="2">
+        <f t="shared" si="42"/>
+        <v>7.694908127391365E+115</v>
+      </c>
+      <c r="C882" s="1">
+        <v>30</v>
+      </c>
+      <c r="D882" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E882" s="1">
+        <v>3</v>
+      </c>
+      <c r="F882" s="1">
+        <v>14</v>
+      </c>
+      <c r="G882" s="1">
+        <v>1</v>
+      </c>
+      <c r="H882" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I882" s="1">
+        <v>1</v>
+      </c>
+      <c r="J882" s="2">
+        <f t="shared" si="51"/>
+        <v>14</v>
+      </c>
+      <c r="K882" s="2">
+        <f t="shared" si="52"/>
+        <v>4</v>
+      </c>
+      <c r="L882" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="883" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A883" s="2">
+        <v>881</v>
+      </c>
+      <c r="B883" s="2">
+        <f t="shared" si="42"/>
+        <v>1.1542362191087048E+116</v>
+      </c>
+      <c r="C883" s="1">
+        <v>30</v>
+      </c>
+      <c r="D883" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E883" s="1">
+        <v>3</v>
+      </c>
+      <c r="F883" s="1">
+        <v>14</v>
+      </c>
+      <c r="G883" s="1">
+        <v>1</v>
+      </c>
+      <c r="H883" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I883" s="1">
+        <v>1</v>
+      </c>
+      <c r="J883" s="2">
+        <f t="shared" si="51"/>
+        <v>-1</v>
+      </c>
+      <c r="K883" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L883" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="884" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A884" s="2">
+        <v>882</v>
+      </c>
+      <c r="B884" s="2">
+        <f t="shared" si="42"/>
+        <v>1.7313543286630573E+116</v>
+      </c>
+      <c r="C884" s="1">
+        <v>30</v>
+      </c>
+      <c r="D884" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E884" s="1">
+        <v>3</v>
+      </c>
+      <c r="F884" s="1">
+        <v>14</v>
+      </c>
+      <c r="G884" s="1">
+        <v>1</v>
+      </c>
+      <c r="H884" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I884" s="1">
+        <v>1</v>
+      </c>
+      <c r="J884" s="2">
+        <f t="shared" si="51"/>
+        <v>-1</v>
+      </c>
+      <c r="K884" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L884" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="885" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A885" s="2">
+        <v>883</v>
+      </c>
+      <c r="B885" s="2">
+        <f t="shared" si="42"/>
+        <v>2.597031492994586E+116</v>
+      </c>
+      <c r="C885" s="1">
+        <v>30</v>
+      </c>
+      <c r="D885" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E885" s="1">
+        <v>3</v>
+      </c>
+      <c r="F885" s="1">
+        <v>14</v>
+      </c>
+      <c r="G885" s="1">
+        <v>1</v>
+      </c>
+      <c r="H885" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I885" s="1">
+        <v>1</v>
+      </c>
+      <c r="J885" s="2">
+        <f t="shared" si="51"/>
+        <v>-1</v>
+      </c>
+      <c r="K885" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L885" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="886" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A886" s="2">
+        <v>884</v>
+      </c>
+      <c r="B886" s="2">
+        <f t="shared" si="42"/>
+        <v>3.8955472394918789E+116</v>
+      </c>
+      <c r="C886" s="1">
+        <v>30</v>
+      </c>
+      <c r="D886" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E886" s="1">
+        <v>3</v>
+      </c>
+      <c r="F886" s="1">
+        <v>14</v>
+      </c>
+      <c r="G886" s="1">
+        <v>1</v>
+      </c>
+      <c r="H886" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I886" s="1">
+        <v>1</v>
+      </c>
+      <c r="J886" s="2">
+        <f t="shared" si="51"/>
+        <v>-1</v>
+      </c>
+      <c r="K886" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L886" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="887" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A887" s="2">
+        <v>885</v>
+      </c>
+      <c r="B887" s="2">
+        <f t="shared" si="42"/>
+        <v>5.8433208592378188E+116</v>
+      </c>
+      <c r="C887" s="1">
+        <v>30</v>
+      </c>
+      <c r="D887" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E887" s="1">
+        <v>3</v>
+      </c>
+      <c r="F887" s="1">
+        <v>14</v>
+      </c>
+      <c r="G887" s="1">
+        <v>1</v>
+      </c>
+      <c r="H887" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I887" s="1">
+        <v>1</v>
+      </c>
+      <c r="J887" s="2">
+        <f t="shared" si="51"/>
+        <v>14</v>
+      </c>
+      <c r="K887" s="2">
+        <f t="shared" si="52"/>
+        <v>4</v>
+      </c>
+      <c r="L887" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="888" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A888" s="2">
+        <v>886</v>
+      </c>
+      <c r="B888" s="2">
+        <f t="shared" si="42"/>
+        <v>8.7649812888567281E+116</v>
+      </c>
+      <c r="C888" s="1">
+        <v>30</v>
+      </c>
+      <c r="D888" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E888" s="1">
+        <v>3</v>
+      </c>
+      <c r="F888" s="1">
+        <v>14</v>
+      </c>
+      <c r="G888" s="1">
+        <v>1</v>
+      </c>
+      <c r="H888" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I888" s="1">
+        <v>1</v>
+      </c>
+      <c r="J888" s="2">
+        <f t="shared" si="51"/>
+        <v>-1</v>
+      </c>
+      <c r="K888" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L888" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="889" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A889" s="2">
+        <v>887</v>
+      </c>
+      <c r="B889" s="2">
+        <f t="shared" si="42"/>
+        <v>1.3147471933285094E+117</v>
+      </c>
+      <c r="C889" s="1">
+        <v>30</v>
+      </c>
+      <c r="D889" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E889" s="1">
+        <v>3</v>
+      </c>
+      <c r="F889" s="1">
+        <v>14</v>
+      </c>
+      <c r="G889" s="1">
+        <v>1</v>
+      </c>
+      <c r="H889" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I889" s="1">
+        <v>1</v>
+      </c>
+      <c r="J889" s="2">
+        <f t="shared" si="51"/>
+        <v>-1</v>
+      </c>
+      <c r="K889" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L889" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="890" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A890" s="2">
+        <v>888</v>
+      </c>
+      <c r="B890" s="2">
+        <f t="shared" si="42"/>
+        <v>1.972120789992764E+117</v>
+      </c>
+      <c r="C890" s="1">
+        <v>30</v>
+      </c>
+      <c r="D890" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E890" s="1">
+        <v>3</v>
+      </c>
+      <c r="F890" s="1">
+        <v>14</v>
+      </c>
+      <c r="G890" s="1">
+        <v>1</v>
+      </c>
+      <c r="H890" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I890" s="1">
+        <v>1</v>
+      </c>
+      <c r="J890" s="2">
+        <f t="shared" si="51"/>
+        <v>-1</v>
+      </c>
+      <c r="K890" s="2">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="L890" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="891" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A891" s="2">
+        <v>889</v>
+      </c>
+      <c r="B891" s="2">
+        <f t="shared" si="42"/>
+        <v>2.9581811849891459E+117</v>
+      </c>
+      <c r="C891" s="1">
+        <v>30</v>
+      </c>
+      <c r="D891" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E891" s="1">
+        <v>3</v>
+      </c>
+      <c r="F891" s="1">
+        <v>14</v>
+      </c>
+      <c r="G891" s="1">
+        <v>1</v>
+      </c>
+      <c r="H891" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I891" s="1">
+        <v>1</v>
+      </c>
+      <c r="J891" s="2">
+        <f t="shared" ref="J891:J900" si="53">IF(MOD(A891,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K891" s="2">
+        <f t="shared" ref="K891:K900" si="54">IF(J891=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L891" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="892" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A892" s="2">
+        <v>890</v>
+      </c>
+      <c r="B892" s="2">
+        <f t="shared" si="42"/>
+        <v>4.4372717774837189E+117</v>
+      </c>
+      <c r="C892" s="1">
+        <v>30</v>
+      </c>
+      <c r="D892" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E892" s="1">
+        <v>3</v>
+      </c>
+      <c r="F892" s="1">
+        <v>14</v>
+      </c>
+      <c r="G892" s="1">
+        <v>1</v>
+      </c>
+      <c r="H892" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I892" s="1">
+        <v>1</v>
+      </c>
+      <c r="J892" s="2">
+        <f t="shared" si="53"/>
+        <v>14</v>
+      </c>
+      <c r="K892" s="2">
+        <f t="shared" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="L892" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="893" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A893" s="2">
+        <v>891</v>
+      </c>
+      <c r="B893" s="2">
+        <f t="shared" si="42"/>
+        <v>6.655907666225578E+117</v>
+      </c>
+      <c r="C893" s="1">
+        <v>30</v>
+      </c>
+      <c r="D893" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E893" s="1">
+        <v>3</v>
+      </c>
+      <c r="F893" s="1">
+        <v>14</v>
+      </c>
+      <c r="G893" s="1">
+        <v>1</v>
+      </c>
+      <c r="H893" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I893" s="1">
+        <v>1</v>
+      </c>
+      <c r="J893" s="2">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="K893" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="L893" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="894" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A894" s="2">
+        <v>892</v>
+      </c>
+      <c r="B894" s="2">
+        <f t="shared" si="42"/>
+        <v>9.9838614993383676E+117</v>
+      </c>
+      <c r="C894" s="1">
+        <v>30</v>
+      </c>
+      <c r="D894" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E894" s="1">
+        <v>3</v>
+      </c>
+      <c r="F894" s="1">
+        <v>14</v>
+      </c>
+      <c r="G894" s="1">
+        <v>1</v>
+      </c>
+      <c r="H894" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I894" s="1">
+        <v>1</v>
+      </c>
+      <c r="J894" s="2">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="K894" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="L894" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="895" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A895" s="2">
+        <v>893</v>
+      </c>
+      <c r="B895" s="2">
+        <f t="shared" si="42"/>
+        <v>1.4975792249007553E+118</v>
+      </c>
+      <c r="C895" s="1">
+        <v>30</v>
+      </c>
+      <c r="D895" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E895" s="1">
+        <v>3</v>
+      </c>
+      <c r="F895" s="1">
+        <v>14</v>
+      </c>
+      <c r="G895" s="1">
+        <v>1</v>
+      </c>
+      <c r="H895" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I895" s="1">
+        <v>1</v>
+      </c>
+      <c r="J895" s="2">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="K895" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="L895" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="896" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A896" s="2">
+        <v>894</v>
+      </c>
+      <c r="B896" s="2">
+        <f t="shared" si="42"/>
+        <v>2.2463688373511331E+118</v>
+      </c>
+      <c r="C896" s="1">
+        <v>30</v>
+      </c>
+      <c r="D896" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E896" s="1">
+        <v>3</v>
+      </c>
+      <c r="F896" s="1">
+        <v>14</v>
+      </c>
+      <c r="G896" s="1">
+        <v>1</v>
+      </c>
+      <c r="H896" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I896" s="1">
+        <v>1</v>
+      </c>
+      <c r="J896" s="2">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="K896" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="L896" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="897" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A897" s="2">
+        <v>895</v>
+      </c>
+      <c r="B897" s="2">
+        <f t="shared" si="42"/>
+        <v>3.3695532560266997E+118</v>
+      </c>
+      <c r="C897" s="1">
+        <v>30</v>
+      </c>
+      <c r="D897" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E897" s="1">
+        <v>3</v>
+      </c>
+      <c r="F897" s="1">
+        <v>14</v>
+      </c>
+      <c r="G897" s="1">
+        <v>1</v>
+      </c>
+      <c r="H897" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I897" s="1">
+        <v>1</v>
+      </c>
+      <c r="J897" s="2">
+        <f t="shared" si="53"/>
+        <v>14</v>
+      </c>
+      <c r="K897" s="2">
+        <f t="shared" si="54"/>
+        <v>4</v>
+      </c>
+      <c r="L897" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="898" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A898" s="2">
+        <v>896</v>
+      </c>
+      <c r="B898" s="2">
+        <f t="shared" si="42"/>
+        <v>5.0543298840400495E+118</v>
+      </c>
+      <c r="C898" s="1">
+        <v>30</v>
+      </c>
+      <c r="D898" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E898" s="1">
+        <v>3</v>
+      </c>
+      <c r="F898" s="1">
+        <v>14</v>
+      </c>
+      <c r="G898" s="1">
+        <v>1</v>
+      </c>
+      <c r="H898" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I898" s="1">
+        <v>1</v>
+      </c>
+      <c r="J898" s="2">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="K898" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="L898" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="899" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A899" s="2">
+        <v>897</v>
+      </c>
+      <c r="B899" s="2">
+        <f t="shared" si="42"/>
+        <v>7.5814948260600742E+118</v>
+      </c>
+      <c r="C899" s="1">
+        <v>30</v>
+      </c>
+      <c r="D899" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E899" s="1">
+        <v>3</v>
+      </c>
+      <c r="F899" s="1">
+        <v>14</v>
+      </c>
+      <c r="G899" s="1">
+        <v>1</v>
+      </c>
+      <c r="H899" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I899" s="1">
+        <v>1</v>
+      </c>
+      <c r="J899" s="2">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="K899" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="L899" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="900" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A900" s="2">
+        <v>898</v>
+      </c>
+      <c r="B900" s="2">
+        <f t="shared" si="42"/>
+        <v>1.137224223909011E+119</v>
+      </c>
+      <c r="C900" s="1">
+        <v>30</v>
+      </c>
+      <c r="D900" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E900" s="1">
+        <v>3</v>
+      </c>
+      <c r="F900" s="1">
+        <v>14</v>
+      </c>
+      <c r="G900" s="1">
+        <v>1</v>
+      </c>
+      <c r="H900" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I900" s="1">
+        <v>1</v>
+      </c>
+      <c r="J900" s="2">
+        <f t="shared" si="53"/>
+        <v>-1</v>
+      </c>
+      <c r="K900" s="2">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="L900" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="901" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A901" s="2">
+        <v>899</v>
+      </c>
+      <c r="B901" s="2">
+        <f t="shared" si="42"/>
+        <v>1.7058363358635164E+119</v>
+      </c>
+      <c r="C901" s="1">
+        <v>30</v>
+      </c>
+      <c r="D901" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E901" s="1">
+        <v>3</v>
+      </c>
+      <c r="F901" s="1">
+        <v>14</v>
+      </c>
+      <c r="G901" s="1">
+        <v>1</v>
+      </c>
+      <c r="H901" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I901" s="1">
+        <v>1</v>
+      </c>
+      <c r="J901" s="2">
+        <f t="shared" ref="J901:J906" si="55">IF(MOD(A901,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K901" s="2">
+        <f t="shared" ref="K901:K906" si="56">IF(J901=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L901" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="902" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A902" s="2">
+        <v>900</v>
+      </c>
+      <c r="B902" s="2">
+        <f t="shared" si="42"/>
+        <v>2.5587545037952746E+119</v>
+      </c>
+      <c r="C902" s="1">
+        <v>30</v>
+      </c>
+      <c r="D902" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E902" s="1">
+        <v>3</v>
+      </c>
+      <c r="F902" s="1">
+        <v>14</v>
+      </c>
+      <c r="G902" s="1">
+        <v>1</v>
+      </c>
+      <c r="H902" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I902" s="1">
+        <v>1</v>
+      </c>
+      <c r="J902" s="2">
+        <f t="shared" si="55"/>
+        <v>14</v>
+      </c>
+      <c r="K902" s="2">
+        <f t="shared" si="56"/>
+        <v>4</v>
+      </c>
+      <c r="L902" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="903" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A903" s="2">
+        <v>901</v>
+      </c>
+      <c r="B903" s="2">
+        <f t="shared" si="42"/>
+        <v>3.8381317556929119E+119</v>
+      </c>
+      <c r="C903" s="1">
+        <v>30</v>
+      </c>
+      <c r="D903" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E903" s="1">
+        <v>3</v>
+      </c>
+      <c r="F903" s="1">
+        <v>14</v>
+      </c>
+      <c r="G903" s="1">
+        <v>1</v>
+      </c>
+      <c r="H903" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I903" s="1">
+        <v>1</v>
+      </c>
+      <c r="J903" s="2">
+        <f t="shared" si="55"/>
+        <v>-1</v>
+      </c>
+      <c r="K903" s="2">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="L903" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="904" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A904" s="2">
+        <v>902</v>
+      </c>
+      <c r="B904" s="2">
+        <f t="shared" si="42"/>
+        <v>5.7571976335393682E+119</v>
+      </c>
+      <c r="C904" s="1">
+        <v>30</v>
+      </c>
+      <c r="D904" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E904" s="1">
+        <v>3</v>
+      </c>
+      <c r="F904" s="1">
+        <v>14</v>
+      </c>
+      <c r="G904" s="1">
+        <v>1</v>
+      </c>
+      <c r="H904" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I904" s="1">
+        <v>1</v>
+      </c>
+      <c r="J904" s="2">
+        <f t="shared" si="55"/>
+        <v>-1</v>
+      </c>
+      <c r="K904" s="2">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="L904" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="905" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A905" s="2">
+        <v>903</v>
+      </c>
+      <c r="B905" s="2">
+        <f t="shared" si="42"/>
+        <v>8.635796450309053E+119</v>
+      </c>
+      <c r="C905" s="1">
+        <v>30</v>
+      </c>
+      <c r="D905" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E905" s="1">
+        <v>3</v>
+      </c>
+      <c r="F905" s="1">
+        <v>14</v>
+      </c>
+      <c r="G905" s="1">
+        <v>1</v>
+      </c>
+      <c r="H905" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I905" s="1">
+        <v>1</v>
+      </c>
+      <c r="J905" s="2">
+        <f t="shared" si="55"/>
+        <v>-1</v>
+      </c>
+      <c r="K905" s="2">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="L905" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="906" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A906" s="2">
+        <v>904</v>
+      </c>
+      <c r="B906" s="2">
+        <f t="shared" si="42"/>
+        <v>1.2953694675463581E+120</v>
+      </c>
+      <c r="C906" s="1">
+        <v>30</v>
+      </c>
+      <c r="D906" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E906" s="1">
+        <v>3</v>
+      </c>
+      <c r="F906" s="1">
+        <v>14</v>
+      </c>
+      <c r="G906" s="1">
+        <v>1</v>
+      </c>
+      <c r="H906" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I906" s="1">
+        <v>1</v>
+      </c>
+      <c r="J906" s="2">
+        <f t="shared" si="55"/>
+        <v>-1</v>
+      </c>
+      <c r="K906" s="2">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="L906" s="1">
         <v>13</v>
       </c>
     </row>
@@ -35502,8 +36714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA34704-3679-4FD2-8316-234FB03DAF7D}">
   <dimension ref="B4:N64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -35914,16 +37126,36 @@
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
+      <c r="B30" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="8">
+        <v>100</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" ref="D30:D34" si="2">POWER(10,C30)</f>
+        <v>1E+100</v>
+      </c>
+      <c r="E30" s="9" t="str">
+        <f t="shared" ref="E30:E34" si="3">RIGHT(D30,C30)</f>
+        <v>1E+100</v>
+      </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="B31" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="8">
+        <v>104</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="2"/>
+        <v>1E+104</v>
+      </c>
+      <c r="E31" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+104</v>
+      </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -35935,10 +37167,20 @@
       <c r="N31" s="4"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="B32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="8">
+        <v>108</v>
+      </c>
+      <c r="D32" s="9">
+        <f t="shared" si="2"/>
+        <v>1E+108</v>
+      </c>
+      <c r="E32" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+108</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -35950,10 +37192,20 @@
       <c r="N32" s="4"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="B33" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="8">
+        <v>112</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999993E+111</v>
+      </c>
+      <c r="E33" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+112</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -35965,10 +37217,20 @@
       <c r="N33" s="4"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="B34" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" s="8">
+        <v>116</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="2"/>
+        <v>1E+116</v>
+      </c>
+      <c r="E34" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+116</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>

--- a/Assets/06.Table/YoguiSogulTable.xlsx
+++ b/Assets/06.Table/YoguiSogulTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEE6355-46B8-4CCE-AF57-7AF43D96FAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A228B49-8AEA-4A49-BE22-D306E70FA0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="YoguiSogulTable" sheetId="1" r:id="rId1"/>
@@ -690,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:L906"/>
+  <dimension ref="A1:L951"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A880" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D911" sqref="D911"/>
+      <pane ySplit="1" topLeftCell="A926" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E948" sqref="E948"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -34289,7 +34289,7 @@
         <v>846</v>
       </c>
       <c r="B848" s="2">
-        <f t="shared" ref="B848:B906" si="42">B847*1.5</f>
+        <f t="shared" ref="B848:B911" si="42">B847*1.5</f>
         <v>7.92684983543263E+109</v>
       </c>
       <c r="C848" s="1">
@@ -36700,6 +36700,1851 @@
         <v>0</v>
       </c>
       <c r="L906" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="907" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A907" s="2">
+        <v>905</v>
+      </c>
+      <c r="B907" s="2">
+        <f t="shared" si="42"/>
+        <v>1.9430542013195371E+120</v>
+      </c>
+      <c r="C907" s="1">
+        <v>30</v>
+      </c>
+      <c r="D907" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E907" s="1">
+        <v>3</v>
+      </c>
+      <c r="F907" s="1">
+        <v>14</v>
+      </c>
+      <c r="G907" s="1">
+        <v>1</v>
+      </c>
+      <c r="H907" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I907" s="1">
+        <v>1</v>
+      </c>
+      <c r="J907" s="2">
+        <f t="shared" ref="J907:J913" si="57">IF(MOD(A907,5)=0,14,-1)</f>
+        <v>14</v>
+      </c>
+      <c r="K907" s="2">
+        <f t="shared" ref="K907:K913" si="58">IF(J907=14,4,0)</f>
+        <v>4</v>
+      </c>
+      <c r="L907" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="908" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A908" s="2">
+        <v>906</v>
+      </c>
+      <c r="B908" s="2">
+        <f t="shared" si="42"/>
+        <v>2.9145813019793058E+120</v>
+      </c>
+      <c r="C908" s="1">
+        <v>30</v>
+      </c>
+      <c r="D908" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E908" s="1">
+        <v>3</v>
+      </c>
+      <c r="F908" s="1">
+        <v>14</v>
+      </c>
+      <c r="G908" s="1">
+        <v>1</v>
+      </c>
+      <c r="H908" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I908" s="1">
+        <v>1</v>
+      </c>
+      <c r="J908" s="2">
+        <f t="shared" si="57"/>
+        <v>-1</v>
+      </c>
+      <c r="K908" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="L908" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="909" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A909" s="2">
+        <v>907</v>
+      </c>
+      <c r="B909" s="2">
+        <f t="shared" si="42"/>
+        <v>4.3718719529689588E+120</v>
+      </c>
+      <c r="C909" s="1">
+        <v>30</v>
+      </c>
+      <c r="D909" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E909" s="1">
+        <v>3</v>
+      </c>
+      <c r="F909" s="1">
+        <v>14</v>
+      </c>
+      <c r="G909" s="1">
+        <v>1</v>
+      </c>
+      <c r="H909" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I909" s="1">
+        <v>1</v>
+      </c>
+      <c r="J909" s="2">
+        <f t="shared" si="57"/>
+        <v>-1</v>
+      </c>
+      <c r="K909" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="L909" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="910" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A910" s="2">
+        <v>908</v>
+      </c>
+      <c r="B910" s="2">
+        <f t="shared" si="42"/>
+        <v>6.5578079294534387E+120</v>
+      </c>
+      <c r="C910" s="1">
+        <v>30</v>
+      </c>
+      <c r="D910" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E910" s="1">
+        <v>3</v>
+      </c>
+      <c r="F910" s="1">
+        <v>14</v>
+      </c>
+      <c r="G910" s="1">
+        <v>1</v>
+      </c>
+      <c r="H910" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I910" s="1">
+        <v>1</v>
+      </c>
+      <c r="J910" s="2">
+        <f t="shared" si="57"/>
+        <v>-1</v>
+      </c>
+      <c r="K910" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="L910" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="911" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A911" s="2">
+        <v>909</v>
+      </c>
+      <c r="B911" s="2">
+        <f t="shared" si="42"/>
+        <v>9.8367118941801581E+120</v>
+      </c>
+      <c r="C911" s="1">
+        <v>30</v>
+      </c>
+      <c r="D911" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E911" s="1">
+        <v>3</v>
+      </c>
+      <c r="F911" s="1">
+        <v>14</v>
+      </c>
+      <c r="G911" s="1">
+        <v>1</v>
+      </c>
+      <c r="H911" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I911" s="1">
+        <v>1</v>
+      </c>
+      <c r="J911" s="2">
+        <f t="shared" si="57"/>
+        <v>-1</v>
+      </c>
+      <c r="K911" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="L911" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="912" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A912" s="2">
+        <v>910</v>
+      </c>
+      <c r="B912" s="2">
+        <f t="shared" ref="B912:B951" si="59">B911*1.5</f>
+        <v>1.4755067841270238E+121</v>
+      </c>
+      <c r="C912" s="1">
+        <v>30</v>
+      </c>
+      <c r="D912" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E912" s="1">
+        <v>3</v>
+      </c>
+      <c r="F912" s="1">
+        <v>14</v>
+      </c>
+      <c r="G912" s="1">
+        <v>1</v>
+      </c>
+      <c r="H912" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I912" s="1">
+        <v>1</v>
+      </c>
+      <c r="J912" s="2">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+      <c r="K912" s="2">
+        <f t="shared" si="58"/>
+        <v>4</v>
+      </c>
+      <c r="L912" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="913" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A913" s="2">
+        <v>911</v>
+      </c>
+      <c r="B913" s="2">
+        <f t="shared" si="59"/>
+        <v>2.2132601761905355E+121</v>
+      </c>
+      <c r="C913" s="1">
+        <v>30</v>
+      </c>
+      <c r="D913" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E913" s="1">
+        <v>3</v>
+      </c>
+      <c r="F913" s="1">
+        <v>14</v>
+      </c>
+      <c r="G913" s="1">
+        <v>1</v>
+      </c>
+      <c r="H913" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I913" s="1">
+        <v>1</v>
+      </c>
+      <c r="J913" s="2">
+        <f t="shared" si="57"/>
+        <v>-1</v>
+      </c>
+      <c r="K913" s="2">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="L913" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="914" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A914" s="2">
+        <v>912</v>
+      </c>
+      <c r="B914" s="2">
+        <f t="shared" si="59"/>
+        <v>3.3198902642858033E+121</v>
+      </c>
+      <c r="C914" s="1">
+        <v>30</v>
+      </c>
+      <c r="D914" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E914" s="1">
+        <v>3</v>
+      </c>
+      <c r="F914" s="1">
+        <v>14</v>
+      </c>
+      <c r="G914" s="1">
+        <v>1</v>
+      </c>
+      <c r="H914" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I914" s="1">
+        <v>1</v>
+      </c>
+      <c r="J914" s="2">
+        <f t="shared" ref="J914:J929" si="60">IF(MOD(A914,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K914" s="2">
+        <f t="shared" ref="K914:K929" si="61">IF(J914=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L914" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="915" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A915" s="2">
+        <v>913</v>
+      </c>
+      <c r="B915" s="2">
+        <f t="shared" si="59"/>
+        <v>4.9798353964287044E+121</v>
+      </c>
+      <c r="C915" s="1">
+        <v>30</v>
+      </c>
+      <c r="D915" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E915" s="1">
+        <v>3</v>
+      </c>
+      <c r="F915" s="1">
+        <v>14</v>
+      </c>
+      <c r="G915" s="1">
+        <v>1</v>
+      </c>
+      <c r="H915" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I915" s="1">
+        <v>1</v>
+      </c>
+      <c r="J915" s="2">
+        <f t="shared" si="60"/>
+        <v>-1</v>
+      </c>
+      <c r="K915" s="2">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="L915" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="916" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A916" s="2">
+        <v>914</v>
+      </c>
+      <c r="B916" s="2">
+        <f t="shared" si="59"/>
+        <v>7.4697530946430567E+121</v>
+      </c>
+      <c r="C916" s="1">
+        <v>30</v>
+      </c>
+      <c r="D916" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E916" s="1">
+        <v>3</v>
+      </c>
+      <c r="F916" s="1">
+        <v>14</v>
+      </c>
+      <c r="G916" s="1">
+        <v>1</v>
+      </c>
+      <c r="H916" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I916" s="1">
+        <v>1</v>
+      </c>
+      <c r="J916" s="2">
+        <f t="shared" si="60"/>
+        <v>-1</v>
+      </c>
+      <c r="K916" s="2">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="L916" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="917" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A917" s="2">
+        <v>915</v>
+      </c>
+      <c r="B917" s="2">
+        <f t="shared" si="59"/>
+        <v>1.1204629641964585E+122</v>
+      </c>
+      <c r="C917" s="1">
+        <v>30</v>
+      </c>
+      <c r="D917" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E917" s="1">
+        <v>3</v>
+      </c>
+      <c r="F917" s="1">
+        <v>14</v>
+      </c>
+      <c r="G917" s="1">
+        <v>1</v>
+      </c>
+      <c r="H917" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I917" s="1">
+        <v>1</v>
+      </c>
+      <c r="J917" s="2">
+        <f t="shared" si="60"/>
+        <v>14</v>
+      </c>
+      <c r="K917" s="2">
+        <f t="shared" si="61"/>
+        <v>4</v>
+      </c>
+      <c r="L917" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="918" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A918" s="2">
+        <v>916</v>
+      </c>
+      <c r="B918" s="2">
+        <f t="shared" si="59"/>
+        <v>1.6806944462946876E+122</v>
+      </c>
+      <c r="C918" s="1">
+        <v>30</v>
+      </c>
+      <c r="D918" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E918" s="1">
+        <v>3</v>
+      </c>
+      <c r="F918" s="1">
+        <v>14</v>
+      </c>
+      <c r="G918" s="1">
+        <v>1</v>
+      </c>
+      <c r="H918" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I918" s="1">
+        <v>1</v>
+      </c>
+      <c r="J918" s="2">
+        <f t="shared" si="60"/>
+        <v>-1</v>
+      </c>
+      <c r="K918" s="2">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="L918" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="919" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A919" s="2">
+        <v>917</v>
+      </c>
+      <c r="B919" s="2">
+        <f t="shared" si="59"/>
+        <v>2.5210416694420315E+122</v>
+      </c>
+      <c r="C919" s="1">
+        <v>30</v>
+      </c>
+      <c r="D919" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E919" s="1">
+        <v>3</v>
+      </c>
+      <c r="F919" s="1">
+        <v>14</v>
+      </c>
+      <c r="G919" s="1">
+        <v>1</v>
+      </c>
+      <c r="H919" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I919" s="1">
+        <v>1</v>
+      </c>
+      <c r="J919" s="2">
+        <f t="shared" si="60"/>
+        <v>-1</v>
+      </c>
+      <c r="K919" s="2">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="L919" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="920" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A920" s="2">
+        <v>918</v>
+      </c>
+      <c r="B920" s="2">
+        <f t="shared" si="59"/>
+        <v>3.781562504163047E+122</v>
+      </c>
+      <c r="C920" s="1">
+        <v>30</v>
+      </c>
+      <c r="D920" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E920" s="1">
+        <v>3</v>
+      </c>
+      <c r="F920" s="1">
+        <v>14</v>
+      </c>
+      <c r="G920" s="1">
+        <v>1</v>
+      </c>
+      <c r="H920" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I920" s="1">
+        <v>1</v>
+      </c>
+      <c r="J920" s="2">
+        <f t="shared" si="60"/>
+        <v>-1</v>
+      </c>
+      <c r="K920" s="2">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="L920" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="921" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A921" s="2">
+        <v>919</v>
+      </c>
+      <c r="B921" s="2">
+        <f t="shared" si="59"/>
+        <v>5.6723437562445701E+122</v>
+      </c>
+      <c r="C921" s="1">
+        <v>30</v>
+      </c>
+      <c r="D921" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E921" s="1">
+        <v>3</v>
+      </c>
+      <c r="F921" s="1">
+        <v>14</v>
+      </c>
+      <c r="G921" s="1">
+        <v>1</v>
+      </c>
+      <c r="H921" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I921" s="1">
+        <v>1</v>
+      </c>
+      <c r="J921" s="2">
+        <f t="shared" si="60"/>
+        <v>-1</v>
+      </c>
+      <c r="K921" s="2">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="L921" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="922" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A922" s="2">
+        <v>920</v>
+      </c>
+      <c r="B922" s="2">
+        <f t="shared" si="59"/>
+        <v>8.5085156343668552E+122</v>
+      </c>
+      <c r="C922" s="1">
+        <v>30</v>
+      </c>
+      <c r="D922" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E922" s="1">
+        <v>3</v>
+      </c>
+      <c r="F922" s="1">
+        <v>14</v>
+      </c>
+      <c r="G922" s="1">
+        <v>1</v>
+      </c>
+      <c r="H922" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I922" s="1">
+        <v>1</v>
+      </c>
+      <c r="J922" s="2">
+        <f t="shared" si="60"/>
+        <v>14</v>
+      </c>
+      <c r="K922" s="2">
+        <f t="shared" si="61"/>
+        <v>4</v>
+      </c>
+      <c r="L922" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="923" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A923" s="2">
+        <v>921</v>
+      </c>
+      <c r="B923" s="2">
+        <f t="shared" si="59"/>
+        <v>1.2762773451550282E+123</v>
+      </c>
+      <c r="C923" s="1">
+        <v>30</v>
+      </c>
+      <c r="D923" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E923" s="1">
+        <v>3</v>
+      </c>
+      <c r="F923" s="1">
+        <v>14</v>
+      </c>
+      <c r="G923" s="1">
+        <v>1</v>
+      </c>
+      <c r="H923" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I923" s="1">
+        <v>1</v>
+      </c>
+      <c r="J923" s="2">
+        <f t="shared" si="60"/>
+        <v>-1</v>
+      </c>
+      <c r="K923" s="2">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="L923" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="924" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A924" s="2">
+        <v>922</v>
+      </c>
+      <c r="B924" s="2">
+        <f t="shared" si="59"/>
+        <v>1.9144160177325425E+123</v>
+      </c>
+      <c r="C924" s="1">
+        <v>30</v>
+      </c>
+      <c r="D924" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E924" s="1">
+        <v>3</v>
+      </c>
+      <c r="F924" s="1">
+        <v>14</v>
+      </c>
+      <c r="G924" s="1">
+        <v>1</v>
+      </c>
+      <c r="H924" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I924" s="1">
+        <v>1</v>
+      </c>
+      <c r="J924" s="2">
+        <f t="shared" si="60"/>
+        <v>-1</v>
+      </c>
+      <c r="K924" s="2">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="L924" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="925" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A925" s="2">
+        <v>923</v>
+      </c>
+      <c r="B925" s="2">
+        <f t="shared" si="59"/>
+        <v>2.8716240265988134E+123</v>
+      </c>
+      <c r="C925" s="1">
+        <v>30</v>
+      </c>
+      <c r="D925" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E925" s="1">
+        <v>3</v>
+      </c>
+      <c r="F925" s="1">
+        <v>14</v>
+      </c>
+      <c r="G925" s="1">
+        <v>1</v>
+      </c>
+      <c r="H925" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I925" s="1">
+        <v>1</v>
+      </c>
+      <c r="J925" s="2">
+        <f t="shared" si="60"/>
+        <v>-1</v>
+      </c>
+      <c r="K925" s="2">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="L925" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="926" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A926" s="2">
+        <v>924</v>
+      </c>
+      <c r="B926" s="2">
+        <f t="shared" si="59"/>
+        <v>4.3074360398982201E+123</v>
+      </c>
+      <c r="C926" s="1">
+        <v>30</v>
+      </c>
+      <c r="D926" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E926" s="1">
+        <v>3</v>
+      </c>
+      <c r="F926" s="1">
+        <v>14</v>
+      </c>
+      <c r="G926" s="1">
+        <v>1</v>
+      </c>
+      <c r="H926" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I926" s="1">
+        <v>1</v>
+      </c>
+      <c r="J926" s="2">
+        <f t="shared" si="60"/>
+        <v>-1</v>
+      </c>
+      <c r="K926" s="2">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="L926" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="927" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A927" s="2">
+        <v>925</v>
+      </c>
+      <c r="B927" s="2">
+        <f t="shared" si="59"/>
+        <v>6.4611540598473298E+123</v>
+      </c>
+      <c r="C927" s="1">
+        <v>30</v>
+      </c>
+      <c r="D927" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E927" s="1">
+        <v>3</v>
+      </c>
+      <c r="F927" s="1">
+        <v>14</v>
+      </c>
+      <c r="G927" s="1">
+        <v>1</v>
+      </c>
+      <c r="H927" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I927" s="1">
+        <v>1</v>
+      </c>
+      <c r="J927" s="2">
+        <f t="shared" si="60"/>
+        <v>14</v>
+      </c>
+      <c r="K927" s="2">
+        <f t="shared" si="61"/>
+        <v>4</v>
+      </c>
+      <c r="L927" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="928" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A928" s="2">
+        <v>926</v>
+      </c>
+      <c r="B928" s="2">
+        <f t="shared" si="59"/>
+        <v>9.6917310897709947E+123</v>
+      </c>
+      <c r="C928" s="1">
+        <v>30</v>
+      </c>
+      <c r="D928" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E928" s="1">
+        <v>3</v>
+      </c>
+      <c r="F928" s="1">
+        <v>14</v>
+      </c>
+      <c r="G928" s="1">
+        <v>1</v>
+      </c>
+      <c r="H928" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I928" s="1">
+        <v>1</v>
+      </c>
+      <c r="J928" s="2">
+        <f t="shared" si="60"/>
+        <v>-1</v>
+      </c>
+      <c r="K928" s="2">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="L928" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="929" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A929" s="2">
+        <v>927</v>
+      </c>
+      <c r="B929" s="2">
+        <f t="shared" si="59"/>
+        <v>1.4537596634656493E+124</v>
+      </c>
+      <c r="C929" s="1">
+        <v>30</v>
+      </c>
+      <c r="D929" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E929" s="1">
+        <v>3</v>
+      </c>
+      <c r="F929" s="1">
+        <v>14</v>
+      </c>
+      <c r="G929" s="1">
+        <v>1</v>
+      </c>
+      <c r="H929" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I929" s="1">
+        <v>1</v>
+      </c>
+      <c r="J929" s="2">
+        <f t="shared" si="60"/>
+        <v>-1</v>
+      </c>
+      <c r="K929" s="2">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="L929" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="930" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A930" s="2">
+        <v>928</v>
+      </c>
+      <c r="B930" s="2">
+        <f t="shared" si="59"/>
+        <v>2.1806394951984738E+124</v>
+      </c>
+      <c r="C930" s="1">
+        <v>30</v>
+      </c>
+      <c r="D930" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E930" s="1">
+        <v>3</v>
+      </c>
+      <c r="F930" s="1">
+        <v>14</v>
+      </c>
+      <c r="G930" s="1">
+        <v>1</v>
+      </c>
+      <c r="H930" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I930" s="1">
+        <v>1</v>
+      </c>
+      <c r="J930" s="2">
+        <f t="shared" ref="J930:J951" si="62">IF(MOD(A930,5)=0,14,-1)</f>
+        <v>-1</v>
+      </c>
+      <c r="K930" s="2">
+        <f t="shared" ref="K930:K951" si="63">IF(J930=14,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L930" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="931" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A931" s="2">
+        <v>929</v>
+      </c>
+      <c r="B931" s="2">
+        <f t="shared" si="59"/>
+        <v>3.2709592427977107E+124</v>
+      </c>
+      <c r="C931" s="1">
+        <v>30</v>
+      </c>
+      <c r="D931" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E931" s="1">
+        <v>3</v>
+      </c>
+      <c r="F931" s="1">
+        <v>14</v>
+      </c>
+      <c r="G931" s="1">
+        <v>1</v>
+      </c>
+      <c r="H931" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I931" s="1">
+        <v>1</v>
+      </c>
+      <c r="J931" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K931" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L931" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="932" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A932" s="2">
+        <v>930</v>
+      </c>
+      <c r="B932" s="2">
+        <f t="shared" si="59"/>
+        <v>4.9064388641965663E+124</v>
+      </c>
+      <c r="C932" s="1">
+        <v>30</v>
+      </c>
+      <c r="D932" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E932" s="1">
+        <v>3</v>
+      </c>
+      <c r="F932" s="1">
+        <v>14</v>
+      </c>
+      <c r="G932" s="1">
+        <v>1</v>
+      </c>
+      <c r="H932" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I932" s="1">
+        <v>1</v>
+      </c>
+      <c r="J932" s="2">
+        <f t="shared" si="62"/>
+        <v>14</v>
+      </c>
+      <c r="K932" s="2">
+        <f t="shared" si="63"/>
+        <v>4</v>
+      </c>
+      <c r="L932" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="933" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A933" s="2">
+        <v>931</v>
+      </c>
+      <c r="B933" s="2">
+        <f t="shared" si="59"/>
+        <v>7.3596582962948494E+124</v>
+      </c>
+      <c r="C933" s="1">
+        <v>30</v>
+      </c>
+      <c r="D933" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E933" s="1">
+        <v>3</v>
+      </c>
+      <c r="F933" s="1">
+        <v>14</v>
+      </c>
+      <c r="G933" s="1">
+        <v>1</v>
+      </c>
+      <c r="H933" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I933" s="1">
+        <v>1</v>
+      </c>
+      <c r="J933" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K933" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L933" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="934" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A934" s="2">
+        <v>932</v>
+      </c>
+      <c r="B934" s="2">
+        <f t="shared" si="59"/>
+        <v>1.1039487444442275E+125</v>
+      </c>
+      <c r="C934" s="1">
+        <v>30</v>
+      </c>
+      <c r="D934" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E934" s="1">
+        <v>3</v>
+      </c>
+      <c r="F934" s="1">
+        <v>14</v>
+      </c>
+      <c r="G934" s="1">
+        <v>1</v>
+      </c>
+      <c r="H934" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I934" s="1">
+        <v>1</v>
+      </c>
+      <c r="J934" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K934" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L934" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="935" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A935" s="2">
+        <v>933</v>
+      </c>
+      <c r="B935" s="2">
+        <f t="shared" si="59"/>
+        <v>1.6559231166663413E+125</v>
+      </c>
+      <c r="C935" s="1">
+        <v>30</v>
+      </c>
+      <c r="D935" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E935" s="1">
+        <v>3</v>
+      </c>
+      <c r="F935" s="1">
+        <v>14</v>
+      </c>
+      <c r="G935" s="1">
+        <v>1</v>
+      </c>
+      <c r="H935" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I935" s="1">
+        <v>1</v>
+      </c>
+      <c r="J935" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K935" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L935" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="936" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A936" s="2">
+        <v>934</v>
+      </c>
+      <c r="B936" s="2">
+        <f t="shared" si="59"/>
+        <v>2.4838846749995119E+125</v>
+      </c>
+      <c r="C936" s="1">
+        <v>30</v>
+      </c>
+      <c r="D936" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E936" s="1">
+        <v>3</v>
+      </c>
+      <c r="F936" s="1">
+        <v>14</v>
+      </c>
+      <c r="G936" s="1">
+        <v>1</v>
+      </c>
+      <c r="H936" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I936" s="1">
+        <v>1</v>
+      </c>
+      <c r="J936" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K936" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L936" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="937" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A937" s="2">
+        <v>935</v>
+      </c>
+      <c r="B937" s="2">
+        <f t="shared" si="59"/>
+        <v>3.7258270124992682E+125</v>
+      </c>
+      <c r="C937" s="1">
+        <v>30</v>
+      </c>
+      <c r="D937" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E937" s="1">
+        <v>3</v>
+      </c>
+      <c r="F937" s="1">
+        <v>14</v>
+      </c>
+      <c r="G937" s="1">
+        <v>1</v>
+      </c>
+      <c r="H937" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I937" s="1">
+        <v>1</v>
+      </c>
+      <c r="J937" s="2">
+        <f t="shared" si="62"/>
+        <v>14</v>
+      </c>
+      <c r="K937" s="2">
+        <f t="shared" si="63"/>
+        <v>4</v>
+      </c>
+      <c r="L937" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="938" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A938" s="2">
+        <v>936</v>
+      </c>
+      <c r="B938" s="2">
+        <f t="shared" si="59"/>
+        <v>5.5887405187489024E+125</v>
+      </c>
+      <c r="C938" s="1">
+        <v>30</v>
+      </c>
+      <c r="D938" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E938" s="1">
+        <v>3</v>
+      </c>
+      <c r="F938" s="1">
+        <v>14</v>
+      </c>
+      <c r="G938" s="1">
+        <v>1</v>
+      </c>
+      <c r="H938" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I938" s="1">
+        <v>1</v>
+      </c>
+      <c r="J938" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K938" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L938" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="939" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A939" s="2">
+        <v>937</v>
+      </c>
+      <c r="B939" s="2">
+        <f t="shared" si="59"/>
+        <v>8.3831107781233532E+125</v>
+      </c>
+      <c r="C939" s="1">
+        <v>30</v>
+      </c>
+      <c r="D939" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E939" s="1">
+        <v>3</v>
+      </c>
+      <c r="F939" s="1">
+        <v>14</v>
+      </c>
+      <c r="G939" s="1">
+        <v>1</v>
+      </c>
+      <c r="H939" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I939" s="1">
+        <v>1</v>
+      </c>
+      <c r="J939" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K939" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L939" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="940" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A940" s="2">
+        <v>938</v>
+      </c>
+      <c r="B940" s="2">
+        <f t="shared" si="59"/>
+        <v>1.2574666167185031E+126</v>
+      </c>
+      <c r="C940" s="1">
+        <v>30</v>
+      </c>
+      <c r="D940" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E940" s="1">
+        <v>3</v>
+      </c>
+      <c r="F940" s="1">
+        <v>14</v>
+      </c>
+      <c r="G940" s="1">
+        <v>1</v>
+      </c>
+      <c r="H940" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I940" s="1">
+        <v>1</v>
+      </c>
+      <c r="J940" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K940" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L940" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="941" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A941" s="2">
+        <v>939</v>
+      </c>
+      <c r="B941" s="2">
+        <f t="shared" si="59"/>
+        <v>1.8861999250777547E+126</v>
+      </c>
+      <c r="C941" s="1">
+        <v>30</v>
+      </c>
+      <c r="D941" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E941" s="1">
+        <v>3</v>
+      </c>
+      <c r="F941" s="1">
+        <v>14</v>
+      </c>
+      <c r="G941" s="1">
+        <v>1</v>
+      </c>
+      <c r="H941" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I941" s="1">
+        <v>1</v>
+      </c>
+      <c r="J941" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K941" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L941" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="942" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A942" s="2">
+        <v>940</v>
+      </c>
+      <c r="B942" s="2">
+        <f t="shared" si="59"/>
+        <v>2.8292998876166318E+126</v>
+      </c>
+      <c r="C942" s="1">
+        <v>30</v>
+      </c>
+      <c r="D942" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E942" s="1">
+        <v>3</v>
+      </c>
+      <c r="F942" s="1">
+        <v>14</v>
+      </c>
+      <c r="G942" s="1">
+        <v>1</v>
+      </c>
+      <c r="H942" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I942" s="1">
+        <v>1</v>
+      </c>
+      <c r="J942" s="2">
+        <f t="shared" si="62"/>
+        <v>14</v>
+      </c>
+      <c r="K942" s="2">
+        <f t="shared" si="63"/>
+        <v>4</v>
+      </c>
+      <c r="L942" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="943" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A943" s="2">
+        <v>941</v>
+      </c>
+      <c r="B943" s="2">
+        <f t="shared" si="59"/>
+        <v>4.2439498314249477E+126</v>
+      </c>
+      <c r="C943" s="1">
+        <v>30</v>
+      </c>
+      <c r="D943" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E943" s="1">
+        <v>3</v>
+      </c>
+      <c r="F943" s="1">
+        <v>14</v>
+      </c>
+      <c r="G943" s="1">
+        <v>1</v>
+      </c>
+      <c r="H943" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I943" s="1">
+        <v>1</v>
+      </c>
+      <c r="J943" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K943" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L943" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="944" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A944" s="2">
+        <v>942</v>
+      </c>
+      <c r="B944" s="2">
+        <f t="shared" si="59"/>
+        <v>6.3659247471374215E+126</v>
+      </c>
+      <c r="C944" s="1">
+        <v>30</v>
+      </c>
+      <c r="D944" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E944" s="1">
+        <v>3</v>
+      </c>
+      <c r="F944" s="1">
+        <v>14</v>
+      </c>
+      <c r="G944" s="1">
+        <v>1</v>
+      </c>
+      <c r="H944" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I944" s="1">
+        <v>1</v>
+      </c>
+      <c r="J944" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K944" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L944" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="945" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A945" s="2">
+        <v>943</v>
+      </c>
+      <c r="B945" s="2">
+        <f t="shared" si="59"/>
+        <v>9.5488871207061317E+126</v>
+      </c>
+      <c r="C945" s="1">
+        <v>30</v>
+      </c>
+      <c r="D945" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E945" s="1">
+        <v>3</v>
+      </c>
+      <c r="F945" s="1">
+        <v>14</v>
+      </c>
+      <c r="G945" s="1">
+        <v>1</v>
+      </c>
+      <c r="H945" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I945" s="1">
+        <v>1</v>
+      </c>
+      <c r="J945" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K945" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L945" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="946" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A946" s="2">
+        <v>944</v>
+      </c>
+      <c r="B946" s="2">
+        <f t="shared" si="59"/>
+        <v>1.4323330681059199E+127</v>
+      </c>
+      <c r="C946" s="1">
+        <v>30</v>
+      </c>
+      <c r="D946" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E946" s="1">
+        <v>3</v>
+      </c>
+      <c r="F946" s="1">
+        <v>14</v>
+      </c>
+      <c r="G946" s="1">
+        <v>1</v>
+      </c>
+      <c r="H946" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I946" s="1">
+        <v>1</v>
+      </c>
+      <c r="J946" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K946" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L946" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="947" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A947" s="2">
+        <v>945</v>
+      </c>
+      <c r="B947" s="2">
+        <f t="shared" si="59"/>
+        <v>2.1484996021588798E+127</v>
+      </c>
+      <c r="C947" s="1">
+        <v>30</v>
+      </c>
+      <c r="D947" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E947" s="1">
+        <v>3</v>
+      </c>
+      <c r="F947" s="1">
+        <v>14</v>
+      </c>
+      <c r="G947" s="1">
+        <v>1</v>
+      </c>
+      <c r="H947" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I947" s="1">
+        <v>1</v>
+      </c>
+      <c r="J947" s="2">
+        <f t="shared" si="62"/>
+        <v>14</v>
+      </c>
+      <c r="K947" s="2">
+        <f t="shared" si="63"/>
+        <v>4</v>
+      </c>
+      <c r="L947" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="948" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A948" s="2">
+        <v>946</v>
+      </c>
+      <c r="B948" s="2">
+        <f t="shared" si="59"/>
+        <v>3.2227494032383197E+127</v>
+      </c>
+      <c r="C948" s="1">
+        <v>30</v>
+      </c>
+      <c r="D948" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E948" s="1">
+        <v>3</v>
+      </c>
+      <c r="F948" s="1">
+        <v>14</v>
+      </c>
+      <c r="G948" s="1">
+        <v>1</v>
+      </c>
+      <c r="H948" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I948" s="1">
+        <v>1</v>
+      </c>
+      <c r="J948" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K948" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L948" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="949" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A949" s="2">
+        <v>947</v>
+      </c>
+      <c r="B949" s="2">
+        <f t="shared" si="59"/>
+        <v>4.8341241048574796E+127</v>
+      </c>
+      <c r="C949" s="1">
+        <v>30</v>
+      </c>
+      <c r="D949" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E949" s="1">
+        <v>3</v>
+      </c>
+      <c r="F949" s="1">
+        <v>14</v>
+      </c>
+      <c r="G949" s="1">
+        <v>1</v>
+      </c>
+      <c r="H949" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I949" s="1">
+        <v>1</v>
+      </c>
+      <c r="J949" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K949" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L949" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="950" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A950" s="2">
+        <v>948</v>
+      </c>
+      <c r="B950" s="2">
+        <f t="shared" si="59"/>
+        <v>7.2511861572862198E+127</v>
+      </c>
+      <c r="C950" s="1">
+        <v>30</v>
+      </c>
+      <c r="D950" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E950" s="1">
+        <v>3</v>
+      </c>
+      <c r="F950" s="1">
+        <v>14</v>
+      </c>
+      <c r="G950" s="1">
+        <v>1</v>
+      </c>
+      <c r="H950" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I950" s="1">
+        <v>1</v>
+      </c>
+      <c r="J950" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K950" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L950" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="951" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A951" s="2">
+        <v>949</v>
+      </c>
+      <c r="B951" s="2">
+        <f t="shared" si="59"/>
+        <v>1.087677923592933E+128</v>
+      </c>
+      <c r="C951" s="1">
+        <v>30</v>
+      </c>
+      <c r="D951" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="E951" s="1">
+        <v>3</v>
+      </c>
+      <c r="F951" s="1">
+        <v>14</v>
+      </c>
+      <c r="G951" s="1">
+        <v>1</v>
+      </c>
+      <c r="H951" s="1">
+        <v>3000</v>
+      </c>
+      <c r="I951" s="1">
+        <v>1</v>
+      </c>
+      <c r="J951" s="2">
+        <f t="shared" si="62"/>
+        <v>-1</v>
+      </c>
+      <c r="K951" s="2">
+        <f t="shared" si="63"/>
+        <v>0</v>
+      </c>
+      <c r="L951" s="1">
         <v>13</v>
       </c>
     </row>
@@ -36714,7 +38559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA34704-3679-4FD2-8316-234FB03DAF7D}">
   <dimension ref="B4:N64"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C28" sqref="C28:E34"/>
     </sheetView>
   </sheetViews>
